--- a/data/localization/translations.xlsx
+++ b/data/localization/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 projects\Sku\source\wow login tool\data\localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 projects\Sku\source\WoW Login Tool\data\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E7C964-B77F-4B60-AC5E-B892938280CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207040D6-85F1-4720-86BC-AE04CFCE1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="-118" windowWidth="32296" windowHeight="19087" xr2:uid="{A84878E2-67FC-4B57-8505-6F1FA03CFFA1}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="cnCN" sheetId="9" r:id="rId9"/>
     <sheet name="enEN" sheetId="1" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="371">
   <si>
     <t>English</t>
   </si>
@@ -895,6 +895,270 @@
   <si>
     <t>4. Add your translation for each string in column B (yellow).</t>
   </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>Franççais</t>
+  </si>
+  <si>
+    <t>Russe</t>
+  </si>
+  <si>
+    <t>Espagnole</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Portugais</t>
+  </si>
+  <si>
+    <t>Coréen</t>
+  </si>
+  <si>
+    <t>Chinois</t>
+  </si>
+  <si>
+    <t>Configuration terminée, lencez le jeu</t>
+  </si>
+  <si>
+    <t>Séléctionné</t>
+  </si>
+  <si>
+    <t>Allez à droite</t>
+  </si>
+  <si>
+    <t>Aller à droite pour séléctionner un type de jeu</t>
+  </si>
+  <si>
+    <t>Aller a droite pour séléctionner une langue</t>
+  </si>
+  <si>
+    <t>Mis en pause</t>
+  </si>
+  <si>
+    <t>Mode de jeu</t>
+  </si>
+  <si>
+    <t>Mode de connection</t>
+  </si>
+  <si>
+    <t>Mode de connection pour</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Choisir la langue</t>
+  </si>
+  <si>
+    <t>Menu principale</t>
+  </si>
+  <si>
+    <t>Séléctionné, relancement du script pour appliquer les modifications, veuillez attendre</t>
+  </si>
+  <si>
+    <t>Veuillez attendre</t>
+  </si>
+  <si>
+    <t>Aller a droite pour séléctionner une région</t>
+  </si>
+  <si>
+    <t>Etats-Unis</t>
+  </si>
+  <si>
+    <t>Wrath of the lich king</t>
+  </si>
+  <si>
+    <t>Classic ERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelque chose s’est mal passer, veuillez relancer le jeu et réessayer </t>
+  </si>
+  <si>
+    <t>Vous n’avez aucuns personnages sur le royaume séléctionné.</t>
+  </si>
+  <si>
+    <t>Personnage</t>
+  </si>
+  <si>
+    <t>Cette race n’est pas disponible pour votre compte, essayez d’en séléctionner une autre</t>
+  </si>
+  <si>
+    <t>Créer un nouveau personnage</t>
+  </si>
+  <si>
+    <t>Se connecter avec le personnage séléctionné</t>
+  </si>
+  <si>
+    <t>Séléctionner le personnage</t>
+  </si>
+  <si>
+    <t>Entrez le nom pour votre nouveau personnage puis appuyez sur entrer ou échape pour annuler.</t>
+  </si>
+  <si>
+    <t>La création de personnage a échouée, vous avez atteint le nombre maximum de personnage sur le serveur</t>
+  </si>
+  <si>
+    <t>Changement de royaume, veuillez patienter</t>
+  </si>
+  <si>
+    <t>La suppression du personnage a échoué, veuillez écrire EFFACER  à nouveau et appuyez sur ENTRER ou appuyez sur échape pour annuler.</t>
+  </si>
+  <si>
+    <t>Le personnage a bien été supprimé</t>
+  </si>
+  <si>
+    <t>Echec, le nom du personnage a déjà été pris ou n’est pas approprié.</t>
+  </si>
+  <si>
+    <t>Le personnage a été créer.</t>
+  </si>
+  <si>
+    <t>Vide, il n’y a aucuns personnage sur ce royaume</t>
+  </si>
+  <si>
+    <t>Changer de royaume</t>
+  </si>
+  <si>
+    <t>Séléctionner la région</t>
+  </si>
+  <si>
+    <t>Séléctionner le type de jeu</t>
+  </si>
+  <si>
+    <t>Séléctionner la voix</t>
+  </si>
+  <si>
+    <t>Ecrivez EFFACER puis appuyez sur ENTRER, sinon appuyez sur échape pour annuler la suppression du personnage.</t>
+  </si>
+  <si>
+    <t>Supprimer le personnage</t>
+  </si>
+  <si>
+    <t>Le royaume a été changé</t>
+  </si>
+  <si>
+    <t>Le royaume est plein, vous êtes dans la file d’attente</t>
+  </si>
+  <si>
+    <t>Veuillez atendre</t>
+  </si>
+  <si>
+    <t>La création est annulée, veuillez patienter</t>
+  </si>
+  <si>
+    <t>La suppression est annulée, veuillez patienter</t>
+  </si>
+  <si>
+    <t>Mode de configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personnage numéro </t>
+  </si>
+  <si>
+    <t>Echec, le royaume que vous avez séléctionner ne semble pas avoir la même langue que la langue définie sur votre jeu. Le serveur n’a pas été changé.</t>
+  </si>
+  <si>
+    <t>La zone de départ pour la race</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>Humain</t>
+  </si>
+  <si>
+    <t>Nain</t>
+  </si>
+  <si>
+    <t>Elf de la nuit</t>
+  </si>
+  <si>
+    <t>Draenei.</t>
+  </si>
+  <si>
+    <t>Elfe du Vide</t>
+  </si>
+  <si>
+    <t>Draeneï sancteforge</t>
+  </si>
+  <si>
+    <t>Nain sombrefer</t>
+  </si>
+  <si>
+    <t>Kultiran</t>
+  </si>
+  <si>
+    <t>Mécagnome</t>
+  </si>
+  <si>
+    <t>Mort-vivant</t>
+  </si>
+  <si>
+    <t>Elf du sang</t>
+  </si>
+  <si>
+    <t>Gobelin</t>
+  </si>
+  <si>
+    <t>Sacrenuit</t>
+  </si>
+  <si>
+    <t>Taurène de Haut-Roc</t>
+  </si>
+  <si>
+    <t>Orque mag'har</t>
+  </si>
+  <si>
+    <t>Trolle zandalari</t>
+  </si>
+  <si>
+    <t>Vulpérin</t>
+  </si>
+  <si>
+    <t>Guerrier</t>
+  </si>
+  <si>
+    <t>Chasseur</t>
+  </si>
+  <si>
+    <t>Voleur</t>
+  </si>
+  <si>
+    <t>Prêtre</t>
+  </si>
+  <si>
+    <t>Démoniste</t>
+  </si>
+  <si>
+    <t>Chamane</t>
+  </si>
+  <si>
+    <t>Moine</t>
+  </si>
+  <si>
+    <t>Chasseur de démons</t>
+  </si>
+  <si>
+    <t>Chevalier de la mort</t>
+  </si>
+  <si>
+    <t>Evocateur</t>
+  </si>
+  <si>
+    <t>Non_disponible</t>
+  </si>
+  <si>
+    <t>Confins de l’Exil</t>
+  </si>
 </sst>
 </file>
 
@@ -10279,13 +10543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B44D42-32E2-4BBD-A78E-132DFF6B99B0}">
   <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" customWidth="1"/>
     <col min="3" max="3" width="43.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="43.77734375" style="7" customWidth="1"/>
@@ -10315,6 +10579,9 @@
         <f>IF(enEN!B2&lt;&gt;0,enEN!B2,"")</f>
         <v>English</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="D2" s="7" t="str">
         <f>IF(enEN!C2&lt;&gt;0,enEN!C2,"")</f>
         <v>Language</v>
@@ -10329,6 +10596,9 @@
         <f>IF(enEN!B3&lt;&gt;0,enEN!B3,"")</f>
         <v>German</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="D3" s="7" t="str">
         <f>IF(enEN!C3&lt;&gt;0,enEN!C3,"")</f>
         <v>Language</v>
@@ -10343,6 +10613,9 @@
         <f>IF(enEN!B4&lt;&gt;0,enEN!B4,"")</f>
         <v>French</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="D4" s="7" t="str">
         <f>IF(enEN!C4&lt;&gt;0,enEN!C4,"")</f>
         <v>Language</v>
@@ -10357,6 +10630,9 @@
         <f>IF(enEN!B5&lt;&gt;0,enEN!B5,"")</f>
         <v>Russian</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="D5" s="7" t="str">
         <f>IF(enEN!C5&lt;&gt;0,enEN!C5,"")</f>
         <v>Language</v>
@@ -10371,6 +10647,9 @@
         <f>IF(enEN!B6&lt;&gt;0,enEN!B6,"")</f>
         <v>Spanish</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="D6" s="7" t="str">
         <f>IF(enEN!C6&lt;&gt;0,enEN!C6,"")</f>
         <v>Language</v>
@@ -10385,6 +10664,9 @@
         <f>IF(enEN!B7&lt;&gt;0,enEN!B7,"")</f>
         <v>Italian</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="D7" s="7" t="str">
         <f>IF(enEN!C7&lt;&gt;0,enEN!C7,"")</f>
         <v>Language</v>
@@ -10399,6 +10681,9 @@
         <f>IF(enEN!B8&lt;&gt;0,enEN!B8,"")</f>
         <v>Portuguese</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="D8" s="7" t="str">
         <f>IF(enEN!C8&lt;&gt;0,enEN!C8,"")</f>
         <v>Language</v>
@@ -10413,6 +10698,9 @@
         <f>IF(enEN!B9&lt;&gt;0,enEN!B9,"")</f>
         <v>Korean</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="D9" s="7" t="str">
         <f>IF(enEN!C9&lt;&gt;0,enEN!C9,"")</f>
         <v>Language</v>
@@ -10427,6 +10715,9 @@
         <f>IF(enEN!B10&lt;&gt;0,enEN!B10,"")</f>
         <v>Chinese</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="D10" s="7" t="str">
         <f>IF(enEN!C10&lt;&gt;0,enEN!C10,"")</f>
         <v>Language</v>
@@ -10441,6 +10732,9 @@
         <f>IF(enEN!B11&lt;&gt;0,enEN!B11,"")</f>
         <v>Setup completed. Start the game now.</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="D11" s="7" t="str">
         <f>IF(enEN!C11&lt;&gt;0,enEN!C11,"")</f>
         <v/>
@@ -10455,6 +10749,9 @@
         <f>IF(enEN!B12&lt;&gt;0,enEN!B12,"")</f>
         <v>selected</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D12" s="7" t="str">
         <f>IF(enEN!C12&lt;&gt;0,enEN!C12,"")</f>
         <v>Verb. Part of the phrase "Character x selected"</v>
@@ -10469,6 +10766,9 @@
         <f>IF(enEN!B13&lt;&gt;0,enEN!B13,"")</f>
         <v>Go right to select a voice</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="D13" s="7" t="str">
         <f>IF(enEN!C13&lt;&gt;0,enEN!C13,"")</f>
         <v/>
@@ -10483,6 +10783,9 @@
         <f>IF(enEN!B14&lt;&gt;0,enEN!B14,"")</f>
         <v>Go right to select a game type</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="D14" s="7" t="str">
         <f>IF(enEN!C14&lt;&gt;0,enEN!C14,"")</f>
         <v>Examples for the "game type" are Wrath, Classic, and Retail</v>
@@ -10497,6 +10800,9 @@
         <f>IF(enEN!B15&lt;&gt;0,enEN!B15,"")</f>
         <v>Go right to select a language</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="D15" s="7" t="str">
         <f>IF(enEN!C15&lt;&gt;0,enEN!C15,"")</f>
         <v/>
@@ -10511,6 +10817,9 @@
         <f>IF(enEN!B16&lt;&gt;0,enEN!B16,"")</f>
         <v>Pause mode</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="D16" s="7" t="str">
         <f>IF(enEN!C16&lt;&gt;0,enEN!C16,"")</f>
         <v/>
@@ -10525,6 +10834,9 @@
         <f>IF(enEN!B17&lt;&gt;0,enEN!B17,"")</f>
         <v>Play mode</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="D17" s="7" t="str">
         <f>IF(enEN!C17&lt;&gt;0,enEN!C17,"")</f>
         <v/>
@@ -10539,6 +10851,9 @@
         <f>IF(enEN!B18&lt;&gt;0,enEN!B18,"")</f>
         <v>Login mode</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="D18" s="7" t="str">
         <f>IF(enEN!C18&lt;&gt;0,enEN!C18,"")</f>
         <v/>
@@ -10553,6 +10868,9 @@
         <f>IF(enEN!B19&lt;&gt;0,enEN!B19,"")</f>
         <v>Login mode for</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="D19" s="7" t="str">
         <f>IF(enEN!C19&lt;&gt;0,enEN!C19,"")</f>
         <v/>
@@ -10567,6 +10885,9 @@
         <f>IF(enEN!B20&lt;&gt;0,enEN!B20,"")</f>
         <v>Terminated</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D20" s="7" t="str">
         <f>IF(enEN!C20&lt;&gt;0,enEN!C20,"")</f>
         <v/>
@@ -10581,6 +10902,9 @@
         <f>IF(enEN!B21&lt;&gt;0,enEN!B21,"")</f>
         <v>Select language</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="D21" s="7" t="str">
         <f>IF(enEN!C21&lt;&gt;0,enEN!C21,"")</f>
         <v/>
@@ -10595,6 +10919,9 @@
         <f>IF(enEN!B22&lt;&gt;0,enEN!B22,"")</f>
         <v>Main menu</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="D22" s="7" t="str">
         <f>IF(enEN!C22&lt;&gt;0,enEN!C22,"")</f>
         <v/>
@@ -10609,6 +10936,9 @@
         <f>IF(enEN!B23&lt;&gt;0,enEN!B23,"")</f>
         <v>selected. Restarting script to apply. Please wait.</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="D23" s="7" t="str">
         <f>IF(enEN!C23&lt;&gt;0,enEN!C23,"")</f>
         <v>Part of the phrase "Character x selected, restarting script to apply."</v>
@@ -10623,6 +10953,9 @@
         <f>IF(enEN!B24&lt;&gt;0,enEN!B24,"")</f>
         <v>Wait</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="D24" s="7" t="str">
         <f>IF(enEN!C24&lt;&gt;0,enEN!C24,"")</f>
         <v>verb</v>
@@ -10637,6 +10970,9 @@
         <f>IF(enEN!B25&lt;&gt;0,enEN!B25,"")</f>
         <v>Go right to select a region</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D25" s="7" t="str">
         <f>IF(enEN!C25&lt;&gt;0,enEN!C25,"")</f>
         <v/>
@@ -10651,6 +10987,9 @@
         <f>IF(enEN!B26&lt;&gt;0,enEN!B26,"")</f>
         <v>Europe</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D26" s="7" t="str">
         <f>IF(enEN!C26&lt;&gt;0,enEN!C26,"")</f>
         <v/>
@@ -10665,6 +11004,9 @@
         <f>IF(enEN!B27&lt;&gt;0,enEN!B27,"")</f>
         <v>USA</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="D27" s="7" t="str">
         <f>IF(enEN!C27&lt;&gt;0,enEN!C27,"")</f>
         <v/>
@@ -10679,6 +11021,9 @@
         <f>IF(enEN!B28&lt;&gt;0,enEN!B28,"")</f>
         <v>Wrath of the Lich King</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="D28" s="7" t="str">
         <f>IF(enEN!C28&lt;&gt;0,enEN!C28,"")</f>
         <v/>
@@ -10693,6 +11038,9 @@
         <f>IF(enEN!B29&lt;&gt;0,enEN!B29,"")</f>
         <v>Classic Era</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>309</v>
+      </c>
       <c r="D29" s="7" t="str">
         <f>IF(enEN!C29&lt;&gt;0,enEN!C29,"")</f>
         <v/>
@@ -10707,6 +11055,9 @@
         <f>IF(enEN!B30&lt;&gt;0,enEN!B30,"")</f>
         <v>Retail</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="7" t="str">
         <f>IF(enEN!C30&lt;&gt;0,enEN!C30,"")</f>
         <v/>
@@ -10721,6 +11072,9 @@
         <f>IF(enEN!B31&lt;&gt;0,enEN!B31,"")</f>
         <v>Not_available</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="D31" s="7" t="str">
         <f>IF(enEN!C31&lt;&gt;0,enEN!C31,"")</f>
         <v>Replace all spaces with underscore (_) in the translated string!</v>
@@ -10735,6 +11089,9 @@
         <f>IF(enEN!B32&lt;&gt;0,enEN!B32,"")</f>
         <v>Something went wrong. Please restart the game and try again.</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" s="7" t="str">
         <f>IF(enEN!C32&lt;&gt;0,enEN!C32,"")</f>
         <v/>
@@ -10749,6 +11106,9 @@
         <f>IF(enEN!B33&lt;&gt;0,enEN!B33,"")</f>
         <v>You don't have any characters on the selected server</v>
       </c>
+      <c r="C33" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="D33" s="7" t="str">
         <f>IF(enEN!C33&lt;&gt;0,enEN!C33,"")</f>
         <v/>
@@ -10763,6 +11123,9 @@
         <f>IF(enEN!B34&lt;&gt;0,enEN!B34,"")</f>
         <v>character</v>
       </c>
+      <c r="C34" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="D34" s="7" t="str">
         <f>IF(enEN!C34&lt;&gt;0,enEN!C34,"")</f>
         <v/>
@@ -10777,6 +11140,9 @@
         <f>IF(enEN!B35&lt;&gt;0,enEN!B35,"")</f>
         <v>selected</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="D35" s="7" t="str">
         <f>IF(enEN!C35&lt;&gt;0,enEN!C35,"")</f>
         <v>verb</v>
@@ -10791,6 +11157,9 @@
         <f>IF(enEN!B36&lt;&gt;0,enEN!B36,"")</f>
         <v>This race is locked for your account. Try a different race.</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>313</v>
+      </c>
       <c r="D36" s="7" t="str">
         <f>IF(enEN!C36&lt;&gt;0,enEN!C36,"")</f>
         <v/>
@@ -10805,6 +11174,9 @@
         <f>IF(enEN!B37&lt;&gt;0,enEN!B37,"")</f>
         <v>Create new character</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="D37" s="7" t="str">
         <f>IF(enEN!C37&lt;&gt;0,enEN!C37,"")</f>
         <v/>
@@ -10819,6 +11191,9 @@
         <f>IF(enEN!B38&lt;&gt;0,enEN!B38,"")</f>
         <v>Login with selected character</v>
       </c>
+      <c r="C38" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="D38" s="7" t="str">
         <f>IF(enEN!C38&lt;&gt;0,enEN!C38,"")</f>
         <v/>
@@ -10833,6 +11208,9 @@
         <f>IF(enEN!B39&lt;&gt;0,enEN!B39,"")</f>
         <v>Select character</v>
       </c>
+      <c r="C39" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="D39" s="7" t="str">
         <f>IF(enEN!C39&lt;&gt;0,enEN!C39,"")</f>
         <v/>
@@ -10847,6 +11225,9 @@
         <f>IF(enEN!B40&lt;&gt;0,enEN!B40,"")</f>
         <v>Enter the name for the new character and press enter, or escape to cancel character creation.</v>
       </c>
+      <c r="C40" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="D40" s="7" t="str">
         <f>IF(enEN!C40&lt;&gt;0,enEN!C40,"")</f>
         <v/>
@@ -10861,6 +11242,9 @@
         <f>IF(enEN!B41&lt;&gt;0,enEN!B41,"")</f>
         <v>Failed. You already have the maximum number of character on this server.</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="D41" s="7" t="str">
         <f>IF(enEN!C41&lt;&gt;0,enEN!C41,"")</f>
         <v/>
@@ -10875,6 +11259,9 @@
         <f>IF(enEN!B42&lt;&gt;0,enEN!B42,"")</f>
         <v>Changing server. Please wait.</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="D42" s="7" t="str">
         <f>IF(enEN!C42&lt;&gt;0,enEN!C42,"")</f>
         <v/>
@@ -10889,6 +11276,9 @@
         <f>IF(enEN!B43&lt;&gt;0,enEN!B43,"")</f>
         <v>Deleting failed. Type Delete again and press enter, or press escape to cancel the deleting process.</v>
       </c>
+      <c r="C43" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="D43" s="7" t="str">
         <f>IF(enEN!C43&lt;&gt;0,enEN!C43,"")</f>
         <v/>
@@ -10903,6 +11293,9 @@
         <f>IF(enEN!B44&lt;&gt;0,enEN!B44,"")</f>
         <v>Character deleted</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="D44" s="7" t="str">
         <f>IF(enEN!C44&lt;&gt;0,enEN!C44,"")</f>
         <v/>
@@ -10917,6 +11310,9 @@
         <f>IF(enEN!B45&lt;&gt;0,enEN!B45,"")</f>
         <v>Failed. The name is not available, or the name is not allowed.</v>
       </c>
+      <c r="C45" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="D45" s="7" t="str">
         <f>IF(enEN!C45&lt;&gt;0,enEN!C45,"")</f>
         <v/>
@@ -10931,6 +11327,9 @@
         <f>IF(enEN!B46&lt;&gt;0,enEN!B46,"")</f>
         <v>Character created</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D46" s="7" t="str">
         <f>IF(enEN!C46&lt;&gt;0,enEN!C46,"")</f>
         <v/>
@@ -10945,6 +11344,9 @@
         <f>IF(enEN!B47&lt;&gt;0,enEN!B47,"")</f>
         <v>Empty. No characters on this server.</v>
       </c>
+      <c r="C47" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="D47" s="7" t="str">
         <f>IF(enEN!C47&lt;&gt;0,enEN!C47,"")</f>
         <v/>
@@ -10959,6 +11361,9 @@
         <f>IF(enEN!B48&lt;&gt;0,enEN!B48,"")</f>
         <v>Change server</v>
       </c>
+      <c r="C48" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="D48" s="7" t="str">
         <f>IF(enEN!C48&lt;&gt;0,enEN!C48,"")</f>
         <v/>
@@ -10973,6 +11378,9 @@
         <f>IF(enEN!B49&lt;&gt;0,enEN!B49,"")</f>
         <v>Select region</v>
       </c>
+      <c r="C49" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="D49" s="7" t="str">
         <f>IF(enEN!C49&lt;&gt;0,enEN!C49,"")</f>
         <v/>
@@ -10987,6 +11395,9 @@
         <f>IF(enEN!B50&lt;&gt;0,enEN!B50,"")</f>
         <v>Select game type</v>
       </c>
+      <c r="C50" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="D50" s="7" t="str">
         <f>IF(enEN!C50&lt;&gt;0,enEN!C50,"")</f>
         <v/>
@@ -11001,6 +11412,9 @@
         <f>IF(enEN!B51&lt;&gt;0,enEN!B51,"")</f>
         <v>Select voice</v>
       </c>
+      <c r="C51" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="D51" s="7" t="str">
         <f>IF(enEN!C51&lt;&gt;0,enEN!C51,"")</f>
         <v/>
@@ -11015,6 +11429,9 @@
         <f>IF(enEN!B52&lt;&gt;0,enEN!B52,"")</f>
         <v>Enter Delete and press enter, or press escape to cancel the deleting process.</v>
       </c>
+      <c r="C52" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="D52" s="7" t="str">
         <f>IF(enEN!C52&lt;&gt;0,enEN!C52,"")</f>
         <v/>
@@ -11029,6 +11446,9 @@
         <f>IF(enEN!B53&lt;&gt;0,enEN!B53,"")</f>
         <v>Delete character</v>
       </c>
+      <c r="C53" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="D53" s="7" t="str">
         <f>IF(enEN!C53&lt;&gt;0,enEN!C53,"")</f>
         <v/>
@@ -11043,6 +11463,9 @@
         <f>IF(enEN!B54&lt;&gt;0,enEN!B54,"")</f>
         <v>Server changed</v>
       </c>
+      <c r="C54" s="4" t="s">
+        <v>331</v>
+      </c>
       <c r="D54" s="7" t="str">
         <f>IF(enEN!C54&lt;&gt;0,enEN!C54,"")</f>
         <v/>
@@ -11057,6 +11480,9 @@
         <f>IF(enEN!B55&lt;&gt;0,enEN!B55,"")</f>
         <v>The server is full. You are in the queue.</v>
       </c>
+      <c r="C55" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D55" s="7" t="str">
         <f>IF(enEN!C55&lt;&gt;0,enEN!C55,"")</f>
         <v/>
@@ -11071,6 +11497,9 @@
         <f>IF(enEN!B56&lt;&gt;0,enEN!B56,"")</f>
         <v>Please wait.</v>
       </c>
+      <c r="C56" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="D56" s="7" t="str">
         <f>IF(enEN!C56&lt;&gt;0,enEN!C56,"")</f>
         <v/>
@@ -11085,6 +11514,9 @@
         <f>IF(enEN!B57&lt;&gt;0,enEN!B57,"")</f>
         <v>Creation is canceled. Please wait.</v>
       </c>
+      <c r="C57" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="D57" s="7" t="str">
         <f>IF(enEN!C57&lt;&gt;0,enEN!C57,"")</f>
         <v/>
@@ -11099,6 +11531,9 @@
         <f>IF(enEN!B58&lt;&gt;0,enEN!B58,"")</f>
         <v>Deleting is canceled. Please wait</v>
       </c>
+      <c r="C58" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="D58" s="7" t="str">
         <f>IF(enEN!C58&lt;&gt;0,enEN!C58,"")</f>
         <v/>
@@ -11113,6 +11548,9 @@
         <f>IF(enEN!B59&lt;&gt;0,enEN!B59,"")</f>
         <v>Setup mode</v>
       </c>
+      <c r="C59" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D59" s="7" t="str">
         <f>IF(enEN!C59&lt;&gt;0,enEN!C59,"")</f>
         <v/>
@@ -11127,6 +11565,9 @@
         <f>IF(enEN!B60&lt;&gt;0,enEN!B60,"")</f>
         <v>The server is full. You are in the queue.</v>
       </c>
+      <c r="C60" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D60" s="7" t="str">
         <f>IF(enEN!C60&lt;&gt;0,enEN!C60,"")</f>
         <v/>
@@ -11141,6 +11582,9 @@
         <f>IF(enEN!B61&lt;&gt;0,enEN!B61,"")</f>
         <v>Character number:</v>
       </c>
+      <c r="C61" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="D61" s="7" t="str">
         <f>IF(enEN!C61&lt;&gt;0,enEN!C61,"")</f>
         <v/>
@@ -11155,6 +11599,9 @@
         <f>IF(enEN!B62&lt;&gt;0,enEN!B62,"")</f>
         <v>Failed. Client is reporting an incorrect client language for this server. Server not switched.</v>
       </c>
+      <c r="C62" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D62" s="7" t="str">
         <f>IF(enEN!C62&lt;&gt;0,enEN!C62,"")</f>
         <v/>
@@ -11169,6 +11616,9 @@
         <f>IF(enEN!B63&lt;&gt;0,enEN!B63,"")</f>
         <v>Exile's Reach</v>
       </c>
+      <c r="C63" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="D63" s="7" t="str">
         <f>IF(enEN!C63&lt;&gt;0,enEN!C63,"")</f>
         <v>Starting zone name. Provide the exact translated zone name from the game. Do not just translate. Use this link https://www.wowhead.com/en/zone=10424 and replace /en/ by your language code if you don't know the zone name.</v>
@@ -11183,6 +11633,9 @@
         <f>IF(enEN!B64&lt;&gt;0,enEN!B64,"")</f>
         <v>Race starting zone</v>
       </c>
+      <c r="C64" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="D64" s="7" t="str">
         <f>IF(enEN!C64&lt;&gt;0,enEN!C64,"")</f>
         <v>The starting zone for a specific race like Human, Orc, Dwarf, etc.</v>
@@ -11197,6 +11650,9 @@
         <f>IF(enEN!B65&lt;&gt;0,enEN!B65,"")</f>
         <v>male</v>
       </c>
+      <c r="C65" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="D65" s="7" t="str">
         <f>IF(enEN!C65&lt;&gt;0,enEN!C65,"")</f>
         <v>adjective</v>
@@ -11211,6 +11667,9 @@
         <f>IF(enEN!B66&lt;&gt;0,enEN!B66,"")</f>
         <v>female</v>
       </c>
+      <c r="C66" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="D66" s="7" t="str">
         <f>IF(enEN!C66&lt;&gt;0,enEN!C66,"")</f>
         <v>adjective</v>
@@ -11225,6 +11684,9 @@
         <f>IF(enEN!B67&lt;&gt;0,enEN!B67,"")</f>
         <v>Alliance</v>
       </c>
+      <c r="C67" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="D67" s="7" t="str">
         <f>IF(enEN!C67&lt;&gt;0,enEN!C67,"")</f>
         <v/>
@@ -11239,6 +11701,9 @@
         <f>IF(enEN!B68&lt;&gt;0,enEN!B68,"")</f>
         <v>Horde</v>
       </c>
+      <c r="C68" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="D68" s="7" t="str">
         <f>IF(enEN!C68&lt;&gt;0,enEN!C68,"")</f>
         <v/>
@@ -11253,6 +11718,9 @@
         <f>IF(enEN!B69&lt;&gt;0,enEN!B69,"")</f>
         <v>Human</v>
       </c>
+      <c r="C69" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="D69" s="7" t="str">
         <f>IF(enEN!C69&lt;&gt;0,enEN!C69,"")</f>
         <v>Race. Provide the exact translation from the game. Not just some free translation. Use this link https://www.wowhead.com/en/races to find the translated name. Replace /en/ by your language code.</v>
@@ -11267,6 +11735,9 @@
         <f>IF(enEN!B70&lt;&gt;0,enEN!B70,"")</f>
         <v>Dwarf</v>
       </c>
+      <c r="C70" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="D70" s="7" t="str">
         <f>IF(enEN!C70&lt;&gt;0,enEN!C70,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11281,6 +11752,9 @@
         <f>IF(enEN!B71&lt;&gt;0,enEN!B71,"")</f>
         <v>Night Elf</v>
       </c>
+      <c r="C71" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="D71" s="7" t="str">
         <f>IF(enEN!C71&lt;&gt;0,enEN!C71,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11295,6 +11769,9 @@
         <f>IF(enEN!B72&lt;&gt;0,enEN!B72,"")</f>
         <v>Gnome</v>
       </c>
+      <c r="C72" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="D72" s="7" t="str">
         <f>IF(enEN!C72&lt;&gt;0,enEN!C72,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11309,6 +11786,9 @@
         <f>IF(enEN!B73&lt;&gt;0,enEN!B73,"")</f>
         <v>Draenei</v>
       </c>
+      <c r="C73" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="D73" s="7" t="str">
         <f>IF(enEN!C73&lt;&gt;0,enEN!C73,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11323,6 +11803,9 @@
         <f>IF(enEN!B74&lt;&gt;0,enEN!B74,"")</f>
         <v>Worgen</v>
       </c>
+      <c r="C74" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="D74" s="7" t="str">
         <f>IF(enEN!C74&lt;&gt;0,enEN!C74,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11337,6 +11820,9 @@
         <f>IF(enEN!B75&lt;&gt;0,enEN!B75,"")</f>
         <v>Pandaren (Alliance)</v>
       </c>
+      <c r="C75" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="D75" s="7" t="str">
         <f>IF(enEN!C75&lt;&gt;0,enEN!C75,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11351,6 +11837,9 @@
         <f>IF(enEN!B76&lt;&gt;0,enEN!B76,"")</f>
         <v>Dracthyr (Alliance)</v>
       </c>
+      <c r="C76" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="D76" s="7" t="str">
         <f>IF(enEN!C76&lt;&gt;0,enEN!C76,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11365,6 +11854,9 @@
         <f>IF(enEN!B77&lt;&gt;0,enEN!B77,"")</f>
         <v>Void Elf</v>
       </c>
+      <c r="C77" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="D77" s="7" t="str">
         <f>IF(enEN!C77&lt;&gt;0,enEN!C77,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11379,6 +11871,9 @@
         <f>IF(enEN!B78&lt;&gt;0,enEN!B78,"")</f>
         <v>Light Forge Draenei</v>
       </c>
+      <c r="C78" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="D78" s="7" t="str">
         <f>IF(enEN!C78&lt;&gt;0,enEN!C78,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11393,6 +11888,9 @@
         <f>IF(enEN!B79&lt;&gt;0,enEN!B79,"")</f>
         <v>Dark Iron Dwarf</v>
       </c>
+      <c r="C79" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="D79" s="7" t="str">
         <f>IF(enEN!C79&lt;&gt;0,enEN!C79,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11407,6 +11905,9 @@
         <f>IF(enEN!B80&lt;&gt;0,enEN!B80,"")</f>
         <v>Kul Tiran</v>
       </c>
+      <c r="C80" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="D80" s="7" t="str">
         <f>IF(enEN!C80&lt;&gt;0,enEN!C80,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11421,6 +11922,9 @@
         <f>IF(enEN!B81&lt;&gt;0,enEN!B81,"")</f>
         <v>Mecha Gnome</v>
       </c>
+      <c r="C81" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="D81" s="7" t="str">
         <f>IF(enEN!C81&lt;&gt;0,enEN!C81,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11435,6 +11939,9 @@
         <f>IF(enEN!B82&lt;&gt;0,enEN!B82,"")</f>
         <v>Orc</v>
       </c>
+      <c r="C82" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="D82" s="7" t="str">
         <f>IF(enEN!C82&lt;&gt;0,enEN!C82,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11449,6 +11956,9 @@
         <f>IF(enEN!B83&lt;&gt;0,enEN!B83,"")</f>
         <v>Undead</v>
       </c>
+      <c r="C83" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="D83" s="7" t="str">
         <f>IF(enEN!C83&lt;&gt;0,enEN!C83,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11463,6 +11973,9 @@
         <f>IF(enEN!B84&lt;&gt;0,enEN!B84,"")</f>
         <v>Tauren</v>
       </c>
+      <c r="C84" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="D84" s="7" t="str">
         <f>IF(enEN!C84&lt;&gt;0,enEN!C84,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11477,6 +11990,9 @@
         <f>IF(enEN!B85&lt;&gt;0,enEN!B85,"")</f>
         <v>Troll</v>
       </c>
+      <c r="C85" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="D85" s="7" t="str">
         <f>IF(enEN!C85&lt;&gt;0,enEN!C85,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11491,6 +12007,9 @@
         <f>IF(enEN!B86&lt;&gt;0,enEN!B86,"")</f>
         <v>Blood Elf</v>
       </c>
+      <c r="C86" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="D86" s="7" t="str">
         <f>IF(enEN!C86&lt;&gt;0,enEN!C86,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11505,6 +12024,9 @@
         <f>IF(enEN!B87&lt;&gt;0,enEN!B87,"")</f>
         <v>Goblin</v>
       </c>
+      <c r="C87" s="4" t="s">
+        <v>353</v>
+      </c>
       <c r="D87" s="7" t="str">
         <f>IF(enEN!C87&lt;&gt;0,enEN!C87,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11519,6 +12041,9 @@
         <f>IF(enEN!B88&lt;&gt;0,enEN!B88,"")</f>
         <v>Pandaren (Horde)</v>
       </c>
+      <c r="C88" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="D88" s="7" t="str">
         <f>IF(enEN!C88&lt;&gt;0,enEN!C88,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11533,6 +12058,9 @@
         <f>IF(enEN!B89&lt;&gt;0,enEN!B89,"")</f>
         <v>Dracthyr (Horde)</v>
       </c>
+      <c r="C89" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="D89" s="7" t="str">
         <f>IF(enEN!C89&lt;&gt;0,enEN!C89,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11547,6 +12075,9 @@
         <f>IF(enEN!B90&lt;&gt;0,enEN!B90,"")</f>
         <v>Night Borne</v>
       </c>
+      <c r="C90" s="4" t="s">
+        <v>354</v>
+      </c>
       <c r="D90" s="7" t="str">
         <f>IF(enEN!C90&lt;&gt;0,enEN!C90,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11561,6 +12092,9 @@
         <f>IF(enEN!B91&lt;&gt;0,enEN!B91,"")</f>
         <v>High Mountain Tauren</v>
       </c>
+      <c r="C91" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="D91" s="7" t="str">
         <f>IF(enEN!C91&lt;&gt;0,enEN!C91,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11575,6 +12109,9 @@
         <f>IF(enEN!B92&lt;&gt;0,enEN!B92,"")</f>
         <v>Mag Har Ork</v>
       </c>
+      <c r="C92" s="4" t="s">
+        <v>356</v>
+      </c>
       <c r="D92" s="7" t="str">
         <f>IF(enEN!C92&lt;&gt;0,enEN!C92,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11589,6 +12126,9 @@
         <f>IF(enEN!B93&lt;&gt;0,enEN!B93,"")</f>
         <v>Zandalari Troll</v>
       </c>
+      <c r="C93" s="4" t="s">
+        <v>357</v>
+      </c>
       <c r="D93" s="7" t="str">
         <f>IF(enEN!C93&lt;&gt;0,enEN!C93,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11603,6 +12143,9 @@
         <f>IF(enEN!B94&lt;&gt;0,enEN!B94,"")</f>
         <v>Vulpera</v>
       </c>
+      <c r="C94" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="D94" s="7" t="str">
         <f>IF(enEN!C94&lt;&gt;0,enEN!C94,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -11617,6 +12160,9 @@
         <f>IF(enEN!B95&lt;&gt;0,enEN!B95,"")</f>
         <v>Warrior</v>
       </c>
+      <c r="C95" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="D95" s="7" t="str">
         <f>IF(enEN!C95&lt;&gt;0,enEN!C95,"")</f>
         <v>Class. Provide the exact translation from the game. Not just some free translation. Use this link https://www.wowhead.com/en/class=1 to find the translated name. Replace /en/ by your language code and class=1 by the class number.</v>
@@ -11631,6 +12177,9 @@
         <f>IF(enEN!B96&lt;&gt;0,enEN!B96,"")</f>
         <v>Hunter</v>
       </c>
+      <c r="C96" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="D96" s="7" t="str">
         <f>IF(enEN!C96&lt;&gt;0,enEN!C96,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11645,6 +12194,9 @@
         <f>IF(enEN!B97&lt;&gt;0,enEN!B97,"")</f>
         <v>Mage</v>
       </c>
+      <c r="C97" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="D97" s="7" t="str">
         <f>IF(enEN!C97&lt;&gt;0,enEN!C97,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11659,6 +12211,9 @@
         <f>IF(enEN!B98&lt;&gt;0,enEN!B98,"")</f>
         <v>Rogue</v>
       </c>
+      <c r="C98" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="D98" s="7" t="str">
         <f>IF(enEN!C98&lt;&gt;0,enEN!C98,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11673,6 +12228,9 @@
         <f>IF(enEN!B99&lt;&gt;0,enEN!B99,"")</f>
         <v>Priest</v>
       </c>
+      <c r="C99" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="D99" s="7" t="str">
         <f>IF(enEN!C99&lt;&gt;0,enEN!C99,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11687,6 +12245,9 @@
         <f>IF(enEN!B100&lt;&gt;0,enEN!B100,"")</f>
         <v>Warlock</v>
       </c>
+      <c r="C100" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="D100" s="7" t="str">
         <f>IF(enEN!C100&lt;&gt;0,enEN!C100,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11701,6 +12262,9 @@
         <f>IF(enEN!B101&lt;&gt;0,enEN!B101,"")</f>
         <v>Paladin</v>
       </c>
+      <c r="C101" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="D101" s="7" t="str">
         <f>IF(enEN!C101&lt;&gt;0,enEN!C101,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11715,6 +12279,9 @@
         <f>IF(enEN!B102&lt;&gt;0,enEN!B102,"")</f>
         <v>Druid</v>
       </c>
+      <c r="C102" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="D102" s="7" t="str">
         <f>IF(enEN!C102&lt;&gt;0,enEN!C102,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11729,6 +12296,9 @@
         <f>IF(enEN!B103&lt;&gt;0,enEN!B103,"")</f>
         <v>Shaman</v>
       </c>
+      <c r="C103" s="4" t="s">
+        <v>364</v>
+      </c>
       <c r="D103" s="7" t="str">
         <f>IF(enEN!C103&lt;&gt;0,enEN!C103,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11743,6 +12313,9 @@
         <f>IF(enEN!B104&lt;&gt;0,enEN!B104,"")</f>
         <v>Monk</v>
       </c>
+      <c r="C104" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="D104" s="7" t="str">
         <f>IF(enEN!C104&lt;&gt;0,enEN!C104,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11757,6 +12330,9 @@
         <f>IF(enEN!B105&lt;&gt;0,enEN!B105,"")</f>
         <v>Demon Hunter</v>
       </c>
+      <c r="C105" s="4" t="s">
+        <v>366</v>
+      </c>
       <c r="D105" s="7" t="str">
         <f>IF(enEN!C105&lt;&gt;0,enEN!C105,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11771,6 +12347,9 @@
         <f>IF(enEN!B106&lt;&gt;0,enEN!B106,"")</f>
         <v>Death Knight</v>
       </c>
+      <c r="C106" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="D106" s="7" t="str">
         <f>IF(enEN!C106&lt;&gt;0,enEN!C106,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -11784,6 +12363,9 @@
       <c r="B107" t="str">
         <f>IF(enEN!B107&lt;&gt;0,enEN!B107,"")</f>
         <v>Evoker</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="D107" s="7" t="str">
         <f>IF(enEN!C107&lt;&gt;0,enEN!C107,"")</f>

--- a/data/localization/translations.xlsx
+++ b/data/localization/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 projects\Sku\source\WoW Login Tool\data\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207040D6-85F1-4720-86BC-AE04CFCE1F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB04934-9499-4288-A76F-0B1E84B69365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="-118" windowWidth="32296" windowHeight="19087" xr2:uid="{A84878E2-67FC-4B57-8505-6F1FA03CFFA1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="469">
   <si>
     <t>English</t>
   </si>
@@ -1159,6 +1159,300 @@
   <si>
     <t>Confins de l’Exil</t>
   </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>Alemán</t>
+  </si>
+  <si>
+    <t>Francés</t>
+  </si>
+  <si>
+    <t>Ruso</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>Portugués</t>
+  </si>
+  <si>
+    <t>Coreano</t>
+  </si>
+  <si>
+    <t>Chino</t>
+  </si>
+  <si>
+    <t>Configuración finalizada, inicie el juego ahora</t>
+  </si>
+  <si>
+    <t>seleccionado</t>
+  </si>
+  <si>
+    <t>Use flecha derecha para seleccionar la voz</t>
+  </si>
+  <si>
+    <t>Use flecha derecha para seleccionar tipo de juego</t>
+  </si>
+  <si>
+    <t>Use flecha derecha para seleccionar idioma</t>
+  </si>
+  <si>
+    <t>Modo en pausa</t>
+  </si>
+  <si>
+    <t>Modo de juego</t>
+  </si>
+  <si>
+    <t>Modo de log in</t>
+  </si>
+  <si>
+    <t>Modo de log in para</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Seleccionar idioma</t>
+  </si>
+  <si>
+    <t>Menú principal</t>
+  </si>
+  <si>
+    <t>seleccionado, reiniciando script, espere</t>
+  </si>
+  <si>
+    <t>espere</t>
+  </si>
+  <si>
+    <t>use flecha derecha para seleccionar región</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>La ira del rey exánime</t>
+  </si>
+  <si>
+    <t>Era Clásica</t>
+  </si>
+  <si>
+    <t>No_disponible</t>
+  </si>
+  <si>
+    <t>Algo salió mal. Reinicie el juego e intente nuevamente</t>
+  </si>
+  <si>
+    <t>No hay personajes en el servidor seleccionado</t>
+  </si>
+  <si>
+    <t>personaje</t>
+  </si>
+  <si>
+    <t>Esta raza está bloqueada para su cuenta, elija una raza diferente</t>
+  </si>
+  <si>
+    <t>Crear nuevo personaje</t>
+  </si>
+  <si>
+    <t>Ingresar con el personaje seleccionado</t>
+  </si>
+  <si>
+    <t>Elegir personaje</t>
+  </si>
+  <si>
+    <t>Ingrese el nombre para el nuevo personaje y presione enter, o escape para cancelar</t>
+  </si>
+  <si>
+    <t>Error, alcanzó el límite de personajes para este servidor</t>
+  </si>
+  <si>
+    <t>Cambiando servidor, espere</t>
+  </si>
+  <si>
+    <t>Error al eliminar. Vuelva a escribir borrar y presione enter, o escape para cancelar</t>
+  </si>
+  <si>
+    <t>Personaje eliminado</t>
+  </si>
+  <si>
+    <t>Error, el nombre no está disponible o no es válido</t>
+  </si>
+  <si>
+    <t>Personaje creado</t>
+  </si>
+  <si>
+    <t>Vacío, no hay personajes en este servidor</t>
+  </si>
+  <si>
+    <t>Cambiar servidor</t>
+  </si>
+  <si>
+    <t>Seleccionar región</t>
+  </si>
+  <si>
+    <t>Seleccionar tipo de juego</t>
+  </si>
+  <si>
+    <t>Seleccionar voz</t>
+  </si>
+  <si>
+    <t>Escriba borrar y presione enter, o escape para cancelar</t>
+  </si>
+  <si>
+    <t>Eliminar personaje</t>
+  </si>
+  <si>
+    <t>Servidor cambiado</t>
+  </si>
+  <si>
+    <t>Servidor lleno, esperando en la cola</t>
+  </si>
+  <si>
+    <t>Por favor espere</t>
+  </si>
+  <si>
+    <t>Creación cancelada, espere</t>
+  </si>
+  <si>
+    <t>Eliminación cancelada, espere</t>
+  </si>
+  <si>
+    <t>Modo de configuración</t>
+  </si>
+  <si>
+    <t>Número de personaje</t>
+  </si>
+  <si>
+    <t>Error, el idioma del cliente no está disponible para este servidor. No se cambió</t>
+  </si>
+  <si>
+    <t>Confín del Exilio</t>
+  </si>
+  <si>
+    <t>Zona inicial de la raza</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Alianza</t>
+  </si>
+  <si>
+    <t>Horda</t>
+  </si>
+  <si>
+    <t>Humano</t>
+  </si>
+  <si>
+    <t>Enano</t>
+  </si>
+  <si>
+    <t>Elfo de la noche</t>
+  </si>
+  <si>
+    <t>Gnomo</t>
+  </si>
+  <si>
+    <t>Huargen</t>
+  </si>
+  <si>
+    <t>Pandaren (Alianza)</t>
+  </si>
+  <si>
+    <t>Dracthyr (Alianza)</t>
+  </si>
+  <si>
+    <t>Elfo del vacío</t>
+  </si>
+  <si>
+    <t>Draenei forjado por la luz</t>
+  </si>
+  <si>
+    <t>Enano Hierro Negro</t>
+  </si>
+  <si>
+    <t>Ciudadano de Kul Tiras</t>
+  </si>
+  <si>
+    <t>Mecagnomo</t>
+  </si>
+  <si>
+    <t>Orco</t>
+  </si>
+  <si>
+    <t>No-muerto</t>
+  </si>
+  <si>
+    <t>Trol</t>
+  </si>
+  <si>
+    <t>Elfo de sangre</t>
+  </si>
+  <si>
+    <t>Pandaren (Horda)</t>
+  </si>
+  <si>
+    <t>Dracthyr (Horda)</t>
+  </si>
+  <si>
+    <t>Nocheterna</t>
+  </si>
+  <si>
+    <t>Tauren Montealto</t>
+  </si>
+  <si>
+    <t>Orco Mag'har</t>
+  </si>
+  <si>
+    <t>Trol Zandalari</t>
+  </si>
+  <si>
+    <t>Guerrero</t>
+  </si>
+  <si>
+    <t>Cazador</t>
+  </si>
+  <si>
+    <t>Mago</t>
+  </si>
+  <si>
+    <t>Pícaro</t>
+  </si>
+  <si>
+    <t>Sacerdote</t>
+  </si>
+  <si>
+    <t>Brujo</t>
+  </si>
+  <si>
+    <t>Paladín</t>
+  </si>
+  <si>
+    <t>Druida</t>
+  </si>
+  <si>
+    <t>Chamán</t>
+  </si>
+  <si>
+    <t>Monje</t>
+  </si>
+  <si>
+    <t>Cazador de demonios</t>
+  </si>
+  <si>
+    <t>Caballero de la muerte</t>
+  </si>
+  <si>
+    <t>Evocador</t>
+  </si>
 </sst>
 </file>
 
@@ -26089,6 +26383,9 @@
         <f>IF(enEN!B2&lt;&gt;0,enEN!B2,"")</f>
         <v>English</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="D2" s="7" t="str">
         <f>IF(enEN!C2&lt;&gt;0,enEN!C2,"")</f>
         <v>Language</v>
@@ -26103,6 +26400,9 @@
         <f>IF(enEN!B3&lt;&gt;0,enEN!B3,"")</f>
         <v>German</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>372</v>
+      </c>
       <c r="D3" s="7" t="str">
         <f>IF(enEN!C3&lt;&gt;0,enEN!C3,"")</f>
         <v>Language</v>
@@ -26117,6 +26417,9 @@
         <f>IF(enEN!B4&lt;&gt;0,enEN!B4,"")</f>
         <v>French</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="D4" s="7" t="str">
         <f>IF(enEN!C4&lt;&gt;0,enEN!C4,"")</f>
         <v>Language</v>
@@ -26131,6 +26434,9 @@
         <f>IF(enEN!B5&lt;&gt;0,enEN!B5,"")</f>
         <v>Russian</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>374</v>
+      </c>
       <c r="D5" s="7" t="str">
         <f>IF(enEN!C5&lt;&gt;0,enEN!C5,"")</f>
         <v>Language</v>
@@ -26145,6 +26451,9 @@
         <f>IF(enEN!B6&lt;&gt;0,enEN!B6,"")</f>
         <v>Spanish</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="D6" s="7" t="str">
         <f>IF(enEN!C6&lt;&gt;0,enEN!C6,"")</f>
         <v>Language</v>
@@ -26159,6 +26468,9 @@
         <f>IF(enEN!B7&lt;&gt;0,enEN!B7,"")</f>
         <v>Italian</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>376</v>
+      </c>
       <c r="D7" s="7" t="str">
         <f>IF(enEN!C7&lt;&gt;0,enEN!C7,"")</f>
         <v>Language</v>
@@ -26173,6 +26485,9 @@
         <f>IF(enEN!B8&lt;&gt;0,enEN!B8,"")</f>
         <v>Portuguese</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="D8" s="7" t="str">
         <f>IF(enEN!C8&lt;&gt;0,enEN!C8,"")</f>
         <v>Language</v>
@@ -26187,6 +26502,9 @@
         <f>IF(enEN!B9&lt;&gt;0,enEN!B9,"")</f>
         <v>Korean</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="D9" s="7" t="str">
         <f>IF(enEN!C9&lt;&gt;0,enEN!C9,"")</f>
         <v>Language</v>
@@ -26201,6 +26519,9 @@
         <f>IF(enEN!B10&lt;&gt;0,enEN!B10,"")</f>
         <v>Chinese</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="D10" s="7" t="str">
         <f>IF(enEN!C10&lt;&gt;0,enEN!C10,"")</f>
         <v>Language</v>
@@ -26215,6 +26536,9 @@
         <f>IF(enEN!B11&lt;&gt;0,enEN!B11,"")</f>
         <v>Setup completed. Start the game now.</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>380</v>
+      </c>
       <c r="D11" s="7" t="str">
         <f>IF(enEN!C11&lt;&gt;0,enEN!C11,"")</f>
         <v/>
@@ -26229,6 +26553,9 @@
         <f>IF(enEN!B12&lt;&gt;0,enEN!B12,"")</f>
         <v>selected</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="D12" s="7" t="str">
         <f>IF(enEN!C12&lt;&gt;0,enEN!C12,"")</f>
         <v>Verb. Part of the phrase "Character x selected"</v>
@@ -26243,6 +26570,9 @@
         <f>IF(enEN!B13&lt;&gt;0,enEN!B13,"")</f>
         <v>Go right to select a voice</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="D13" s="7" t="str">
         <f>IF(enEN!C13&lt;&gt;0,enEN!C13,"")</f>
         <v/>
@@ -26257,6 +26587,9 @@
         <f>IF(enEN!B14&lt;&gt;0,enEN!B14,"")</f>
         <v>Go right to select a game type</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="D14" s="7" t="str">
         <f>IF(enEN!C14&lt;&gt;0,enEN!C14,"")</f>
         <v>Examples for the "game type" are Wrath, Classic, and Retail</v>
@@ -26271,6 +26604,9 @@
         <f>IF(enEN!B15&lt;&gt;0,enEN!B15,"")</f>
         <v>Go right to select a language</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="D15" s="7" t="str">
         <f>IF(enEN!C15&lt;&gt;0,enEN!C15,"")</f>
         <v/>
@@ -26285,6 +26621,9 @@
         <f>IF(enEN!B16&lt;&gt;0,enEN!B16,"")</f>
         <v>Pause mode</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="D16" s="7" t="str">
         <f>IF(enEN!C16&lt;&gt;0,enEN!C16,"")</f>
         <v/>
@@ -26299,6 +26638,9 @@
         <f>IF(enEN!B17&lt;&gt;0,enEN!B17,"")</f>
         <v>Play mode</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="D17" s="7" t="str">
         <f>IF(enEN!C17&lt;&gt;0,enEN!C17,"")</f>
         <v/>
@@ -26313,6 +26655,9 @@
         <f>IF(enEN!B18&lt;&gt;0,enEN!B18,"")</f>
         <v>Login mode</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="D18" s="7" t="str">
         <f>IF(enEN!C18&lt;&gt;0,enEN!C18,"")</f>
         <v/>
@@ -26327,6 +26672,9 @@
         <f>IF(enEN!B19&lt;&gt;0,enEN!B19,"")</f>
         <v>Login mode for</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>388</v>
+      </c>
       <c r="D19" s="7" t="str">
         <f>IF(enEN!C19&lt;&gt;0,enEN!C19,"")</f>
         <v/>
@@ -26341,6 +26689,9 @@
         <f>IF(enEN!B20&lt;&gt;0,enEN!B20,"")</f>
         <v>Terminated</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="D20" s="7" t="str">
         <f>IF(enEN!C20&lt;&gt;0,enEN!C20,"")</f>
         <v/>
@@ -26355,6 +26706,9 @@
         <f>IF(enEN!B21&lt;&gt;0,enEN!B21,"")</f>
         <v>Select language</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="D21" s="7" t="str">
         <f>IF(enEN!C21&lt;&gt;0,enEN!C21,"")</f>
         <v/>
@@ -26369,6 +26723,9 @@
         <f>IF(enEN!B22&lt;&gt;0,enEN!B22,"")</f>
         <v>Main menu</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="D22" s="7" t="str">
         <f>IF(enEN!C22&lt;&gt;0,enEN!C22,"")</f>
         <v/>
@@ -26383,6 +26740,9 @@
         <f>IF(enEN!B23&lt;&gt;0,enEN!B23,"")</f>
         <v>selected. Restarting script to apply. Please wait.</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>392</v>
+      </c>
       <c r="D23" s="7" t="str">
         <f>IF(enEN!C23&lt;&gt;0,enEN!C23,"")</f>
         <v>Part of the phrase "Character x selected, restarting script to apply."</v>
@@ -26397,6 +26757,9 @@
         <f>IF(enEN!B24&lt;&gt;0,enEN!B24,"")</f>
         <v>Wait</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="D24" s="7" t="str">
         <f>IF(enEN!C24&lt;&gt;0,enEN!C24,"")</f>
         <v>verb</v>
@@ -26411,6 +26774,9 @@
         <f>IF(enEN!B25&lt;&gt;0,enEN!B25,"")</f>
         <v>Go right to select a region</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>394</v>
+      </c>
       <c r="D25" s="7" t="str">
         <f>IF(enEN!C25&lt;&gt;0,enEN!C25,"")</f>
         <v/>
@@ -26425,6 +26791,9 @@
         <f>IF(enEN!B26&lt;&gt;0,enEN!B26,"")</f>
         <v>Europe</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D26" s="7" t="str">
         <f>IF(enEN!C26&lt;&gt;0,enEN!C26,"")</f>
         <v/>
@@ -26439,6 +26808,9 @@
         <f>IF(enEN!B27&lt;&gt;0,enEN!B27,"")</f>
         <v>USA</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>395</v>
+      </c>
       <c r="D27" s="7" t="str">
         <f>IF(enEN!C27&lt;&gt;0,enEN!C27,"")</f>
         <v/>
@@ -26453,6 +26825,9 @@
         <f>IF(enEN!B28&lt;&gt;0,enEN!B28,"")</f>
         <v>Wrath of the Lich King</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>396</v>
+      </c>
       <c r="D28" s="7" t="str">
         <f>IF(enEN!C28&lt;&gt;0,enEN!C28,"")</f>
         <v/>
@@ -26467,6 +26842,9 @@
         <f>IF(enEN!B29&lt;&gt;0,enEN!B29,"")</f>
         <v>Classic Era</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="D29" s="7" t="str">
         <f>IF(enEN!C29&lt;&gt;0,enEN!C29,"")</f>
         <v/>
@@ -26481,6 +26859,9 @@
         <f>IF(enEN!B30&lt;&gt;0,enEN!B30,"")</f>
         <v>Retail</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D30" s="7" t="str">
         <f>IF(enEN!C30&lt;&gt;0,enEN!C30,"")</f>
         <v/>
@@ -26495,6 +26876,9 @@
         <f>IF(enEN!B31&lt;&gt;0,enEN!B31,"")</f>
         <v>Not_available</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="D31" s="7" t="str">
         <f>IF(enEN!C31&lt;&gt;0,enEN!C31,"")</f>
         <v>Replace all spaces with underscore (_) in the translated string!</v>
@@ -26509,6 +26893,9 @@
         <f>IF(enEN!B32&lt;&gt;0,enEN!B32,"")</f>
         <v>Something went wrong. Please restart the game and try again.</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>399</v>
+      </c>
       <c r="D32" s="7" t="str">
         <f>IF(enEN!C32&lt;&gt;0,enEN!C32,"")</f>
         <v/>
@@ -26523,6 +26910,9 @@
         <f>IF(enEN!B33&lt;&gt;0,enEN!B33,"")</f>
         <v>You don't have any characters on the selected server</v>
       </c>
+      <c r="C33" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="D33" s="7" t="str">
         <f>IF(enEN!C33&lt;&gt;0,enEN!C33,"")</f>
         <v/>
@@ -26537,6 +26927,9 @@
         <f>IF(enEN!B34&lt;&gt;0,enEN!B34,"")</f>
         <v>character</v>
       </c>
+      <c r="C34" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="D34" s="7" t="str">
         <f>IF(enEN!C34&lt;&gt;0,enEN!C34,"")</f>
         <v/>
@@ -26551,6 +26944,9 @@
         <f>IF(enEN!B35&lt;&gt;0,enEN!B35,"")</f>
         <v>selected</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="D35" s="7" t="str">
         <f>IF(enEN!C35&lt;&gt;0,enEN!C35,"")</f>
         <v>verb</v>
@@ -26565,6 +26961,9 @@
         <f>IF(enEN!B36&lt;&gt;0,enEN!B36,"")</f>
         <v>This race is locked for your account. Try a different race.</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="D36" s="7" t="str">
         <f>IF(enEN!C36&lt;&gt;0,enEN!C36,"")</f>
         <v/>
@@ -26579,6 +26978,9 @@
         <f>IF(enEN!B37&lt;&gt;0,enEN!B37,"")</f>
         <v>Create new character</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="D37" s="7" t="str">
         <f>IF(enEN!C37&lt;&gt;0,enEN!C37,"")</f>
         <v/>
@@ -26593,6 +26995,9 @@
         <f>IF(enEN!B38&lt;&gt;0,enEN!B38,"")</f>
         <v>Login with selected character</v>
       </c>
+      <c r="C38" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="D38" s="7" t="str">
         <f>IF(enEN!C38&lt;&gt;0,enEN!C38,"")</f>
         <v/>
@@ -26607,6 +27012,9 @@
         <f>IF(enEN!B39&lt;&gt;0,enEN!B39,"")</f>
         <v>Select character</v>
       </c>
+      <c r="C39" s="4" t="s">
+        <v>405</v>
+      </c>
       <c r="D39" s="7" t="str">
         <f>IF(enEN!C39&lt;&gt;0,enEN!C39,"")</f>
         <v/>
@@ -26621,6 +27029,9 @@
         <f>IF(enEN!B40&lt;&gt;0,enEN!B40,"")</f>
         <v>Enter the name for the new character and press enter, or escape to cancel character creation.</v>
       </c>
+      <c r="C40" s="4" t="s">
+        <v>406</v>
+      </c>
       <c r="D40" s="7" t="str">
         <f>IF(enEN!C40&lt;&gt;0,enEN!C40,"")</f>
         <v/>
@@ -26635,6 +27046,9 @@
         <f>IF(enEN!B41&lt;&gt;0,enEN!B41,"")</f>
         <v>Failed. You already have the maximum number of character on this server.</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" s="7" t="str">
         <f>IF(enEN!C41&lt;&gt;0,enEN!C41,"")</f>
         <v/>
@@ -26649,6 +27063,9 @@
         <f>IF(enEN!B42&lt;&gt;0,enEN!B42,"")</f>
         <v>Changing server. Please wait.</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="D42" s="7" t="str">
         <f>IF(enEN!C42&lt;&gt;0,enEN!C42,"")</f>
         <v/>
@@ -26663,6 +27080,9 @@
         <f>IF(enEN!B43&lt;&gt;0,enEN!B43,"")</f>
         <v>Deleting failed. Type Delete again and press enter, or press escape to cancel the deleting process.</v>
       </c>
+      <c r="C43" s="4" t="s">
+        <v>409</v>
+      </c>
       <c r="D43" s="7" t="str">
         <f>IF(enEN!C43&lt;&gt;0,enEN!C43,"")</f>
         <v/>
@@ -26677,6 +27097,9 @@
         <f>IF(enEN!B44&lt;&gt;0,enEN!B44,"")</f>
         <v>Character deleted</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>410</v>
+      </c>
       <c r="D44" s="7" t="str">
         <f>IF(enEN!C44&lt;&gt;0,enEN!C44,"")</f>
         <v/>
@@ -26691,6 +27114,9 @@
         <f>IF(enEN!B45&lt;&gt;0,enEN!B45,"")</f>
         <v>Failed. The name is not available, or the name is not allowed.</v>
       </c>
+      <c r="C45" s="4" t="s">
+        <v>411</v>
+      </c>
       <c r="D45" s="7" t="str">
         <f>IF(enEN!C45&lt;&gt;0,enEN!C45,"")</f>
         <v/>
@@ -26705,6 +27131,9 @@
         <f>IF(enEN!B46&lt;&gt;0,enEN!B46,"")</f>
         <v>Character created</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="D46" s="7" t="str">
         <f>IF(enEN!C46&lt;&gt;0,enEN!C46,"")</f>
         <v/>
@@ -26719,6 +27148,9 @@
         <f>IF(enEN!B47&lt;&gt;0,enEN!B47,"")</f>
         <v>Empty. No characters on this server.</v>
       </c>
+      <c r="C47" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="D47" s="7" t="str">
         <f>IF(enEN!C47&lt;&gt;0,enEN!C47,"")</f>
         <v/>
@@ -26733,6 +27165,9 @@
         <f>IF(enEN!B48&lt;&gt;0,enEN!B48,"")</f>
         <v>Change server</v>
       </c>
+      <c r="C48" s="4" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" s="7" t="str">
         <f>IF(enEN!C48&lt;&gt;0,enEN!C48,"")</f>
         <v/>
@@ -26747,6 +27182,9 @@
         <f>IF(enEN!B49&lt;&gt;0,enEN!B49,"")</f>
         <v>Select region</v>
       </c>
+      <c r="C49" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="D49" s="7" t="str">
         <f>IF(enEN!C49&lt;&gt;0,enEN!C49,"")</f>
         <v/>
@@ -26761,6 +27199,9 @@
         <f>IF(enEN!B50&lt;&gt;0,enEN!B50,"")</f>
         <v>Select game type</v>
       </c>
+      <c r="C50" s="4" t="s">
+        <v>416</v>
+      </c>
       <c r="D50" s="7" t="str">
         <f>IF(enEN!C50&lt;&gt;0,enEN!C50,"")</f>
         <v/>
@@ -26775,6 +27216,9 @@
         <f>IF(enEN!B51&lt;&gt;0,enEN!B51,"")</f>
         <v>Select voice</v>
       </c>
+      <c r="C51" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="D51" s="7" t="str">
         <f>IF(enEN!C51&lt;&gt;0,enEN!C51,"")</f>
         <v/>
@@ -26789,6 +27233,9 @@
         <f>IF(enEN!B52&lt;&gt;0,enEN!B52,"")</f>
         <v>Enter Delete and press enter, or press escape to cancel the deleting process.</v>
       </c>
+      <c r="C52" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="D52" s="7" t="str">
         <f>IF(enEN!C52&lt;&gt;0,enEN!C52,"")</f>
         <v/>
@@ -26803,6 +27250,9 @@
         <f>IF(enEN!B53&lt;&gt;0,enEN!B53,"")</f>
         <v>Delete character</v>
       </c>
+      <c r="C53" s="4" t="s">
+        <v>419</v>
+      </c>
       <c r="D53" s="7" t="str">
         <f>IF(enEN!C53&lt;&gt;0,enEN!C53,"")</f>
         <v/>
@@ -26817,6 +27267,9 @@
         <f>IF(enEN!B54&lt;&gt;0,enEN!B54,"")</f>
         <v>Server changed</v>
       </c>
+      <c r="C54" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="D54" s="7" t="str">
         <f>IF(enEN!C54&lt;&gt;0,enEN!C54,"")</f>
         <v/>
@@ -26831,6 +27284,9 @@
         <f>IF(enEN!B55&lt;&gt;0,enEN!B55,"")</f>
         <v>The server is full. You are in the queue.</v>
       </c>
+      <c r="C55" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D55" s="7" t="str">
         <f>IF(enEN!C55&lt;&gt;0,enEN!C55,"")</f>
         <v/>
@@ -26845,6 +27301,9 @@
         <f>IF(enEN!B56&lt;&gt;0,enEN!B56,"")</f>
         <v>Please wait.</v>
       </c>
+      <c r="C56" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="D56" s="7" t="str">
         <f>IF(enEN!C56&lt;&gt;0,enEN!C56,"")</f>
         <v/>
@@ -26859,6 +27318,9 @@
         <f>IF(enEN!B57&lt;&gt;0,enEN!B57,"")</f>
         <v>Creation is canceled. Please wait.</v>
       </c>
+      <c r="C57" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="D57" s="7" t="str">
         <f>IF(enEN!C57&lt;&gt;0,enEN!C57,"")</f>
         <v/>
@@ -26873,6 +27335,9 @@
         <f>IF(enEN!B58&lt;&gt;0,enEN!B58,"")</f>
         <v>Deleting is canceled. Please wait</v>
       </c>
+      <c r="C58" s="4" t="s">
+        <v>424</v>
+      </c>
       <c r="D58" s="7" t="str">
         <f>IF(enEN!C58&lt;&gt;0,enEN!C58,"")</f>
         <v/>
@@ -26887,6 +27352,9 @@
         <f>IF(enEN!B59&lt;&gt;0,enEN!B59,"")</f>
         <v>Setup mode</v>
       </c>
+      <c r="C59" s="4" t="s">
+        <v>425</v>
+      </c>
       <c r="D59" s="7" t="str">
         <f>IF(enEN!C59&lt;&gt;0,enEN!C59,"")</f>
         <v/>
@@ -26901,6 +27369,9 @@
         <f>IF(enEN!B60&lt;&gt;0,enEN!B60,"")</f>
         <v>The server is full. You are in the queue.</v>
       </c>
+      <c r="C60" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="D60" s="7" t="str">
         <f>IF(enEN!C60&lt;&gt;0,enEN!C60,"")</f>
         <v/>
@@ -26915,6 +27386,9 @@
         <f>IF(enEN!B61&lt;&gt;0,enEN!B61,"")</f>
         <v>Character number:</v>
       </c>
+      <c r="C61" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="D61" s="7" t="str">
         <f>IF(enEN!C61&lt;&gt;0,enEN!C61,"")</f>
         <v/>
@@ -26929,6 +27403,9 @@
         <f>IF(enEN!B62&lt;&gt;0,enEN!B62,"")</f>
         <v>Failed. Client is reporting an incorrect client language for this server. Server not switched.</v>
       </c>
+      <c r="C62" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="D62" s="7" t="str">
         <f>IF(enEN!C62&lt;&gt;0,enEN!C62,"")</f>
         <v/>
@@ -26943,6 +27420,9 @@
         <f>IF(enEN!B63&lt;&gt;0,enEN!B63,"")</f>
         <v>Exile's Reach</v>
       </c>
+      <c r="C63" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="D63" s="7" t="str">
         <f>IF(enEN!C63&lt;&gt;0,enEN!C63,"")</f>
         <v>Starting zone name. Provide the exact translated zone name from the game. Do not just translate. Use this link https://www.wowhead.com/en/zone=10424 and replace /en/ by your language code if you don't know the zone name.</v>
@@ -26957,6 +27437,9 @@
         <f>IF(enEN!B64&lt;&gt;0,enEN!B64,"")</f>
         <v>Race starting zone</v>
       </c>
+      <c r="C64" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="D64" s="7" t="str">
         <f>IF(enEN!C64&lt;&gt;0,enEN!C64,"")</f>
         <v>The starting zone for a specific race like Human, Orc, Dwarf, etc.</v>
@@ -26971,6 +27454,9 @@
         <f>IF(enEN!B65&lt;&gt;0,enEN!B65,"")</f>
         <v>male</v>
       </c>
+      <c r="C65" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="D65" s="7" t="str">
         <f>IF(enEN!C65&lt;&gt;0,enEN!C65,"")</f>
         <v>adjective</v>
@@ -26985,6 +27471,9 @@
         <f>IF(enEN!B66&lt;&gt;0,enEN!B66,"")</f>
         <v>female</v>
       </c>
+      <c r="C66" s="4" t="s">
+        <v>431</v>
+      </c>
       <c r="D66" s="7" t="str">
         <f>IF(enEN!C66&lt;&gt;0,enEN!C66,"")</f>
         <v>adjective</v>
@@ -26999,6 +27488,9 @@
         <f>IF(enEN!B67&lt;&gt;0,enEN!B67,"")</f>
         <v>Alliance</v>
       </c>
+      <c r="C67" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="D67" s="7" t="str">
         <f>IF(enEN!C67&lt;&gt;0,enEN!C67,"")</f>
         <v/>
@@ -27013,6 +27505,9 @@
         <f>IF(enEN!B68&lt;&gt;0,enEN!B68,"")</f>
         <v>Horde</v>
       </c>
+      <c r="C68" s="4" t="s">
+        <v>433</v>
+      </c>
       <c r="D68" s="7" t="str">
         <f>IF(enEN!C68&lt;&gt;0,enEN!C68,"")</f>
         <v/>
@@ -27027,6 +27522,9 @@
         <f>IF(enEN!B69&lt;&gt;0,enEN!B69,"")</f>
         <v>Human</v>
       </c>
+      <c r="C69" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="D69" s="7" t="str">
         <f>IF(enEN!C69&lt;&gt;0,enEN!C69,"")</f>
         <v>Race. Provide the exact translation from the game. Not just some free translation. Use this link https://www.wowhead.com/en/races to find the translated name. Replace /en/ by your language code.</v>
@@ -27041,6 +27539,9 @@
         <f>IF(enEN!B70&lt;&gt;0,enEN!B70,"")</f>
         <v>Dwarf</v>
       </c>
+      <c r="C70" s="4" t="s">
+        <v>435</v>
+      </c>
       <c r="D70" s="7" t="str">
         <f>IF(enEN!C70&lt;&gt;0,enEN!C70,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27055,6 +27556,9 @@
         <f>IF(enEN!B71&lt;&gt;0,enEN!B71,"")</f>
         <v>Night Elf</v>
       </c>
+      <c r="C71" s="4" t="s">
+        <v>436</v>
+      </c>
       <c r="D71" s="7" t="str">
         <f>IF(enEN!C71&lt;&gt;0,enEN!C71,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27069,6 +27573,9 @@
         <f>IF(enEN!B72&lt;&gt;0,enEN!B72,"")</f>
         <v>Gnome</v>
       </c>
+      <c r="C72" s="4" t="s">
+        <v>437</v>
+      </c>
       <c r="D72" s="7" t="str">
         <f>IF(enEN!C72&lt;&gt;0,enEN!C72,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27083,6 +27590,9 @@
         <f>IF(enEN!B73&lt;&gt;0,enEN!B73,"")</f>
         <v>Draenei</v>
       </c>
+      <c r="C73" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="D73" s="7" t="str">
         <f>IF(enEN!C73&lt;&gt;0,enEN!C73,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27097,6 +27607,9 @@
         <f>IF(enEN!B74&lt;&gt;0,enEN!B74,"")</f>
         <v>Worgen</v>
       </c>
+      <c r="C74" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="D74" s="7" t="str">
         <f>IF(enEN!C74&lt;&gt;0,enEN!C74,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27111,6 +27624,9 @@
         <f>IF(enEN!B75&lt;&gt;0,enEN!B75,"")</f>
         <v>Pandaren (Alliance)</v>
       </c>
+      <c r="C75" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="D75" s="7" t="str">
         <f>IF(enEN!C75&lt;&gt;0,enEN!C75,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27125,6 +27641,9 @@
         <f>IF(enEN!B76&lt;&gt;0,enEN!B76,"")</f>
         <v>Dracthyr (Alliance)</v>
       </c>
+      <c r="C76" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D76" s="7" t="str">
         <f>IF(enEN!C76&lt;&gt;0,enEN!C76,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27139,6 +27658,9 @@
         <f>IF(enEN!B77&lt;&gt;0,enEN!B77,"")</f>
         <v>Void Elf</v>
       </c>
+      <c r="C77" s="4" t="s">
+        <v>441</v>
+      </c>
       <c r="D77" s="7" t="str">
         <f>IF(enEN!C77&lt;&gt;0,enEN!C77,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27153,6 +27675,9 @@
         <f>IF(enEN!B78&lt;&gt;0,enEN!B78,"")</f>
         <v>Light Forge Draenei</v>
       </c>
+      <c r="C78" s="4" t="s">
+        <v>442</v>
+      </c>
       <c r="D78" s="7" t="str">
         <f>IF(enEN!C78&lt;&gt;0,enEN!C78,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27167,6 +27692,9 @@
         <f>IF(enEN!B79&lt;&gt;0,enEN!B79,"")</f>
         <v>Dark Iron Dwarf</v>
       </c>
+      <c r="C79" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="D79" s="7" t="str">
         <f>IF(enEN!C79&lt;&gt;0,enEN!C79,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27181,6 +27709,9 @@
         <f>IF(enEN!B80&lt;&gt;0,enEN!B80,"")</f>
         <v>Kul Tiran</v>
       </c>
+      <c r="C80" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="D80" s="7" t="str">
         <f>IF(enEN!C80&lt;&gt;0,enEN!C80,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27195,6 +27726,9 @@
         <f>IF(enEN!B81&lt;&gt;0,enEN!B81,"")</f>
         <v>Mecha Gnome</v>
       </c>
+      <c r="C81" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="D81" s="7" t="str">
         <f>IF(enEN!C81&lt;&gt;0,enEN!C81,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27209,6 +27743,9 @@
         <f>IF(enEN!B82&lt;&gt;0,enEN!B82,"")</f>
         <v>Orc</v>
       </c>
+      <c r="C82" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="D82" s="7" t="str">
         <f>IF(enEN!C82&lt;&gt;0,enEN!C82,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27223,6 +27760,9 @@
         <f>IF(enEN!B83&lt;&gt;0,enEN!B83,"")</f>
         <v>Undead</v>
       </c>
+      <c r="C83" s="4" t="s">
+        <v>447</v>
+      </c>
       <c r="D83" s="7" t="str">
         <f>IF(enEN!C83&lt;&gt;0,enEN!C83,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27237,6 +27777,9 @@
         <f>IF(enEN!B84&lt;&gt;0,enEN!B84,"")</f>
         <v>Tauren</v>
       </c>
+      <c r="C84" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="D84" s="7" t="str">
         <f>IF(enEN!C84&lt;&gt;0,enEN!C84,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27251,6 +27794,9 @@
         <f>IF(enEN!B85&lt;&gt;0,enEN!B85,"")</f>
         <v>Troll</v>
       </c>
+      <c r="C85" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="D85" s="7" t="str">
         <f>IF(enEN!C85&lt;&gt;0,enEN!C85,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27265,6 +27811,9 @@
         <f>IF(enEN!B86&lt;&gt;0,enEN!B86,"")</f>
         <v>Blood Elf</v>
       </c>
+      <c r="C86" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="D86" s="7" t="str">
         <f>IF(enEN!C86&lt;&gt;0,enEN!C86,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27279,6 +27828,9 @@
         <f>IF(enEN!B87&lt;&gt;0,enEN!B87,"")</f>
         <v>Goblin</v>
       </c>
+      <c r="C87" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="D87" s="7" t="str">
         <f>IF(enEN!C87&lt;&gt;0,enEN!C87,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27293,6 +27845,9 @@
         <f>IF(enEN!B88&lt;&gt;0,enEN!B88,"")</f>
         <v>Pandaren (Horde)</v>
       </c>
+      <c r="C88" s="4" t="s">
+        <v>450</v>
+      </c>
       <c r="D88" s="7" t="str">
         <f>IF(enEN!C88&lt;&gt;0,enEN!C88,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27307,6 +27862,9 @@
         <f>IF(enEN!B89&lt;&gt;0,enEN!B89,"")</f>
         <v>Dracthyr (Horde)</v>
       </c>
+      <c r="C89" s="4" t="s">
+        <v>451</v>
+      </c>
       <c r="D89" s="7" t="str">
         <f>IF(enEN!C89&lt;&gt;0,enEN!C89,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27321,6 +27879,9 @@
         <f>IF(enEN!B90&lt;&gt;0,enEN!B90,"")</f>
         <v>Night Borne</v>
       </c>
+      <c r="C90" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="D90" s="7" t="str">
         <f>IF(enEN!C90&lt;&gt;0,enEN!C90,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27335,6 +27896,9 @@
         <f>IF(enEN!B91&lt;&gt;0,enEN!B91,"")</f>
         <v>High Mountain Tauren</v>
       </c>
+      <c r="C91" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="D91" s="7" t="str">
         <f>IF(enEN!C91&lt;&gt;0,enEN!C91,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27349,6 +27913,9 @@
         <f>IF(enEN!B92&lt;&gt;0,enEN!B92,"")</f>
         <v>Mag Har Ork</v>
       </c>
+      <c r="C92" s="4" t="s">
+        <v>454</v>
+      </c>
       <c r="D92" s="7" t="str">
         <f>IF(enEN!C92&lt;&gt;0,enEN!C92,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27363,6 +27930,9 @@
         <f>IF(enEN!B93&lt;&gt;0,enEN!B93,"")</f>
         <v>Zandalari Troll</v>
       </c>
+      <c r="C93" s="4" t="s">
+        <v>455</v>
+      </c>
       <c r="D93" s="7" t="str">
         <f>IF(enEN!C93&lt;&gt;0,enEN!C93,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27377,6 +27947,9 @@
         <f>IF(enEN!B94&lt;&gt;0,enEN!B94,"")</f>
         <v>Vulpera</v>
       </c>
+      <c r="C94" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="D94" s="7" t="str">
         <f>IF(enEN!C94&lt;&gt;0,enEN!C94,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -27391,6 +27964,9 @@
         <f>IF(enEN!B95&lt;&gt;0,enEN!B95,"")</f>
         <v>Warrior</v>
       </c>
+      <c r="C95" s="4" t="s">
+        <v>456</v>
+      </c>
       <c r="D95" s="7" t="str">
         <f>IF(enEN!C95&lt;&gt;0,enEN!C95,"")</f>
         <v>Class. Provide the exact translation from the game. Not just some free translation. Use this link https://www.wowhead.com/en/class=1 to find the translated name. Replace /en/ by your language code and class=1 by the class number.</v>
@@ -27405,6 +27981,9 @@
         <f>IF(enEN!B96&lt;&gt;0,enEN!B96,"")</f>
         <v>Hunter</v>
       </c>
+      <c r="C96" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="D96" s="7" t="str">
         <f>IF(enEN!C96&lt;&gt;0,enEN!C96,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27419,6 +27998,9 @@
         <f>IF(enEN!B97&lt;&gt;0,enEN!B97,"")</f>
         <v>Mage</v>
       </c>
+      <c r="C97" s="4" t="s">
+        <v>458</v>
+      </c>
       <c r="D97" s="7" t="str">
         <f>IF(enEN!C97&lt;&gt;0,enEN!C97,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27433,6 +28015,9 @@
         <f>IF(enEN!B98&lt;&gt;0,enEN!B98,"")</f>
         <v>Rogue</v>
       </c>
+      <c r="C98" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="D98" s="7" t="str">
         <f>IF(enEN!C98&lt;&gt;0,enEN!C98,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27447,6 +28032,9 @@
         <f>IF(enEN!B99&lt;&gt;0,enEN!B99,"")</f>
         <v>Priest</v>
       </c>
+      <c r="C99" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="D99" s="7" t="str">
         <f>IF(enEN!C99&lt;&gt;0,enEN!C99,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27461,6 +28049,9 @@
         <f>IF(enEN!B100&lt;&gt;0,enEN!B100,"")</f>
         <v>Warlock</v>
       </c>
+      <c r="C100" s="4" t="s">
+        <v>461</v>
+      </c>
       <c r="D100" s="7" t="str">
         <f>IF(enEN!C100&lt;&gt;0,enEN!C100,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27475,6 +28066,9 @@
         <f>IF(enEN!B101&lt;&gt;0,enEN!B101,"")</f>
         <v>Paladin</v>
       </c>
+      <c r="C101" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="D101" s="7" t="str">
         <f>IF(enEN!C101&lt;&gt;0,enEN!C101,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27489,6 +28083,9 @@
         <f>IF(enEN!B102&lt;&gt;0,enEN!B102,"")</f>
         <v>Druid</v>
       </c>
+      <c r="C102" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="D102" s="7" t="str">
         <f>IF(enEN!C102&lt;&gt;0,enEN!C102,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27503,6 +28100,9 @@
         <f>IF(enEN!B103&lt;&gt;0,enEN!B103,"")</f>
         <v>Shaman</v>
       </c>
+      <c r="C103" s="4" t="s">
+        <v>464</v>
+      </c>
       <c r="D103" s="7" t="str">
         <f>IF(enEN!C103&lt;&gt;0,enEN!C103,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27517,6 +28117,9 @@
         <f>IF(enEN!B104&lt;&gt;0,enEN!B104,"")</f>
         <v>Monk</v>
       </c>
+      <c r="C104" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D104" s="7" t="str">
         <f>IF(enEN!C104&lt;&gt;0,enEN!C104,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27531,6 +28134,9 @@
         <f>IF(enEN!B105&lt;&gt;0,enEN!B105,"")</f>
         <v>Demon Hunter</v>
       </c>
+      <c r="C105" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="D105" s="7" t="str">
         <f>IF(enEN!C105&lt;&gt;0,enEN!C105,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27545,6 +28151,9 @@
         <f>IF(enEN!B106&lt;&gt;0,enEN!B106,"")</f>
         <v>Death Knight</v>
       </c>
+      <c r="C106" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="D106" s="7" t="str">
         <f>IF(enEN!C106&lt;&gt;0,enEN!C106,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -27558,6 +28167,9 @@
       <c r="B107" t="str">
         <f>IF(enEN!B107&lt;&gt;0,enEN!B107,"")</f>
         <v>Evoker</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="D107" s="7" t="str">
         <f>IF(enEN!C107&lt;&gt;0,enEN!C107,"")</f>

--- a/data/localization/translations.xlsx
+++ b/data/localization/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 projects\Sku\source\WoW Login Tool\data\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB04934-9499-4288-A76F-0B1E84B69365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF4E19-69CF-49A2-AF87-745F081CE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="-118" windowWidth="32296" windowHeight="19087" xr2:uid="{A84878E2-67FC-4B57-8505-6F1FA03CFFA1}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="573">
   <si>
     <t>English</t>
   </si>
@@ -1453,6 +1453,318 @@
   <si>
     <t>Evocador</t>
   </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Немецкий</t>
+  </si>
+  <si>
+    <t>Французский</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Испанский</t>
+  </si>
+  <si>
+    <t>Итальянский</t>
+  </si>
+  <si>
+    <t>Португальский</t>
+  </si>
+  <si>
+    <t>Корейский</t>
+  </si>
+  <si>
+    <t>Китайский</t>
+  </si>
+  <si>
+    <t>Настройка завершена. Сейчас запустите игру.</t>
+  </si>
+  <si>
+    <t>выбран</t>
+  </si>
+  <si>
+    <t>Перейдите вправо, чтобы выбрать голос</t>
+  </si>
+  <si>
+    <t>Перейдите вправо, чтобы выбрать версию игры</t>
+  </si>
+  <si>
+    <t>Перейдите вправо, чтобы выбрать язык</t>
+  </si>
+  <si>
+    <t>Режим паузы</t>
+  </si>
+  <si>
+    <t>Режим игры</t>
+  </si>
+  <si>
+    <t>Режим входа</t>
+  </si>
+  <si>
+    <t>Режим входа для</t>
+  </si>
+  <si>
+    <t>Завершён</t>
+  </si>
+  <si>
+    <t>Выберите язык</t>
+  </si>
+  <si>
+    <t>Главное меню</t>
+  </si>
+  <si>
+    <t>выбран. Скрипт перезапускается для применения изменений.</t>
+  </si>
+  <si>
+    <t>подождите</t>
+  </si>
+  <si>
+    <t>Перейдите вправо, чтобы выбрать регион</t>
+  </si>
+  <si>
+    <t>Европа</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Гнев Короля-лича</t>
+  </si>
+  <si>
+    <t>Классическая эра</t>
+  </si>
+  <si>
+    <t>Актуальный</t>
+  </si>
+  <si>
+    <t>Недоступен</t>
+  </si>
+  <si>
+    <t>Что-то пошло не так. Пожалуйста, перезапустите игру и попробуйте снова.</t>
+  </si>
+  <si>
+    <t>У вас нет персонажей на выбранном сервере.</t>
+  </si>
+  <si>
+    <t>Персонаж</t>
+  </si>
+  <si>
+    <t>Эта раса заблокирована для вашего аккаунта. Пожалуйста, выберите другую расу.</t>
+  </si>
+  <si>
+    <t>Создать нового персонажа</t>
+  </si>
+  <si>
+    <t>Войти с выбранным персонажем</t>
+  </si>
+  <si>
+    <t>Выбрать персонажа</t>
+  </si>
+  <si>
+    <t>Введите имя нового персонажа и нажмите enter или нажмите escape для отмены создания персонажа.</t>
+  </si>
+  <si>
+    <t>Ошибка. У вас уже максимальное количество персонажей на этом сервере.</t>
+  </si>
+  <si>
+    <t>Идёт смена сервера, пожалуйста, подождите.</t>
+  </si>
+  <si>
+    <t>Произошла ошибка при удалении персонажа. Пожалуйста, напечатайте delete снова и нажмите enter или нажмите escape для отмены удаления.</t>
+  </si>
+  <si>
+    <t>Персонаж удалён</t>
+  </si>
+  <si>
+    <t>Ошибка. Выбранное имя недоступно или запрещено.</t>
+  </si>
+  <si>
+    <t>Персонаж создан</t>
+  </si>
+  <si>
+    <t>Пусто. Нет персонажей на этом сервере.</t>
+  </si>
+  <si>
+    <t>Изменить сервер.</t>
+  </si>
+  <si>
+    <t>Выберите регион</t>
+  </si>
+  <si>
+    <t>Выберите версию игры</t>
+  </si>
+  <si>
+    <t>Выберите голос</t>
+  </si>
+  <si>
+    <t>Напечатайте delete и нажмите enter или нажмите escape для отмены удаления.</t>
+  </si>
+  <si>
+    <t>Удалить персонажа</t>
+  </si>
+  <si>
+    <t>Сервер изменён</t>
+  </si>
+  <si>
+    <t>Сервер переполнен. Вы в очереди</t>
+  </si>
+  <si>
+    <t>Пожалуйста, подождите</t>
+  </si>
+  <si>
+    <t>Создание отменено, пожалуйста, подождите</t>
+  </si>
+  <si>
+    <t>Удаление отменено, пожалуйста, подождите</t>
+  </si>
+  <si>
+    <t>Режим настройки</t>
+  </si>
+  <si>
+    <t>Номер персонажа:</t>
+  </si>
+  <si>
+    <t>Ошибка. Игра сообщает о некорректном языке клиента для этого сервера. Сервер не изменён.</t>
+  </si>
+  <si>
+    <t>Остров изгнанников</t>
+  </si>
+  <si>
+    <t>Расовая стартовая зона</t>
+  </si>
+  <si>
+    <t>Мужской</t>
+  </si>
+  <si>
+    <t>Женский</t>
+  </si>
+  <si>
+    <t>Альянс</t>
+  </si>
+  <si>
+    <t>Орда</t>
+  </si>
+  <si>
+    <t>Люди</t>
+  </si>
+  <si>
+    <t>Дворфы</t>
+  </si>
+  <si>
+    <t>Ночные Эльфы</t>
+  </si>
+  <si>
+    <t>Гномы</t>
+  </si>
+  <si>
+    <t>Дренеи</t>
+  </si>
+  <si>
+    <t>Воргены</t>
+  </si>
+  <si>
+    <t>Пандарены (Альянс)</t>
+  </si>
+  <si>
+    <t>Драктиры (Альянс)</t>
+  </si>
+  <si>
+    <t>Эльфы Бездны</t>
+  </si>
+  <si>
+    <t>Озарённые Дренеи</t>
+  </si>
+  <si>
+    <t>Дворфы Чёрного Железа</t>
+  </si>
+  <si>
+    <t>Культирасцы</t>
+  </si>
+  <si>
+    <t>Механогномы</t>
+  </si>
+  <si>
+    <t>Орки</t>
+  </si>
+  <si>
+    <t>Нежить</t>
+  </si>
+  <si>
+    <t>Таурены</t>
+  </si>
+  <si>
+    <t>Тролли</t>
+  </si>
+  <si>
+    <t>Эльфы Крови</t>
+  </si>
+  <si>
+    <t>Гоблины</t>
+  </si>
+  <si>
+    <t>Пандарены (Орда)</t>
+  </si>
+  <si>
+    <t>Дактиры (Орда)</t>
+  </si>
+  <si>
+    <t>Ночнорождённые</t>
+  </si>
+  <si>
+    <t>Таурены Крутогорья</t>
+  </si>
+  <si>
+    <t>Маг'хары</t>
+  </si>
+  <si>
+    <t>Зандалары</t>
+  </si>
+  <si>
+    <t>Вульперы</t>
+  </si>
+  <si>
+    <t>Воин</t>
+  </si>
+  <si>
+    <t>Охотник</t>
+  </si>
+  <si>
+    <t>Маг</t>
+  </si>
+  <si>
+    <t>Разбойник</t>
+  </si>
+  <si>
+    <t>Жрец</t>
+  </si>
+  <si>
+    <t>Чернокнижник</t>
+  </si>
+  <si>
+    <t>Паладин</t>
+  </si>
+  <si>
+    <t>Друид</t>
+  </si>
+  <si>
+    <t>Шаман</t>
+  </si>
+  <si>
+    <t>Монах</t>
+  </si>
+  <si>
+    <t>Охотник на демонов</t>
+  </si>
+  <si>
+    <t>Рыцарь Смерти</t>
+  </si>
+  <si>
+    <t>Пробудитель</t>
+  </si>
 </sst>
 </file>
 
@@ -18787,6 +19099,9 @@
         <f>IF(enEN!B2&lt;&gt;0,enEN!B2,"")</f>
         <v>English</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>469</v>
+      </c>
       <c r="D2" s="7" t="str">
         <f>IF(enEN!C2&lt;&gt;0,enEN!C2,"")</f>
         <v>Language</v>
@@ -18801,6 +19116,9 @@
         <f>IF(enEN!B3&lt;&gt;0,enEN!B3,"")</f>
         <v>German</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>470</v>
+      </c>
       <c r="D3" s="7" t="str">
         <f>IF(enEN!C3&lt;&gt;0,enEN!C3,"")</f>
         <v>Language</v>
@@ -18815,6 +19133,9 @@
         <f>IF(enEN!B4&lt;&gt;0,enEN!B4,"")</f>
         <v>French</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="D4" s="7" t="str">
         <f>IF(enEN!C4&lt;&gt;0,enEN!C4,"")</f>
         <v>Language</v>
@@ -18829,6 +19150,9 @@
         <f>IF(enEN!B5&lt;&gt;0,enEN!B5,"")</f>
         <v>Russian</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>472</v>
+      </c>
       <c r="D5" s="7" t="str">
         <f>IF(enEN!C5&lt;&gt;0,enEN!C5,"")</f>
         <v>Language</v>
@@ -18843,6 +19167,9 @@
         <f>IF(enEN!B6&lt;&gt;0,enEN!B6,"")</f>
         <v>Spanish</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>473</v>
+      </c>
       <c r="D6" s="7" t="str">
         <f>IF(enEN!C6&lt;&gt;0,enEN!C6,"")</f>
         <v>Language</v>
@@ -18857,6 +19184,9 @@
         <f>IF(enEN!B7&lt;&gt;0,enEN!B7,"")</f>
         <v>Italian</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="D7" s="7" t="str">
         <f>IF(enEN!C7&lt;&gt;0,enEN!C7,"")</f>
         <v>Language</v>
@@ -18871,6 +19201,9 @@
         <f>IF(enEN!B8&lt;&gt;0,enEN!B8,"")</f>
         <v>Portuguese</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>475</v>
+      </c>
       <c r="D8" s="7" t="str">
         <f>IF(enEN!C8&lt;&gt;0,enEN!C8,"")</f>
         <v>Language</v>
@@ -18885,6 +19218,9 @@
         <f>IF(enEN!B9&lt;&gt;0,enEN!B9,"")</f>
         <v>Korean</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>476</v>
+      </c>
       <c r="D9" s="7" t="str">
         <f>IF(enEN!C9&lt;&gt;0,enEN!C9,"")</f>
         <v>Language</v>
@@ -18899,6 +19235,9 @@
         <f>IF(enEN!B10&lt;&gt;0,enEN!B10,"")</f>
         <v>Chinese</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>477</v>
+      </c>
       <c r="D10" s="7" t="str">
         <f>IF(enEN!C10&lt;&gt;0,enEN!C10,"")</f>
         <v>Language</v>
@@ -18913,6 +19252,9 @@
         <f>IF(enEN!B11&lt;&gt;0,enEN!B11,"")</f>
         <v>Setup completed. Start the game now.</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D11" s="7" t="str">
         <f>IF(enEN!C11&lt;&gt;0,enEN!C11,"")</f>
         <v/>
@@ -18927,6 +19269,9 @@
         <f>IF(enEN!B12&lt;&gt;0,enEN!B12,"")</f>
         <v>selected</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="D12" s="7" t="str">
         <f>IF(enEN!C12&lt;&gt;0,enEN!C12,"")</f>
         <v>Verb. Part of the phrase "Character x selected"</v>
@@ -18941,6 +19286,9 @@
         <f>IF(enEN!B13&lt;&gt;0,enEN!B13,"")</f>
         <v>Go right to select a voice</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>480</v>
+      </c>
       <c r="D13" s="7" t="str">
         <f>IF(enEN!C13&lt;&gt;0,enEN!C13,"")</f>
         <v/>
@@ -18955,6 +19303,9 @@
         <f>IF(enEN!B14&lt;&gt;0,enEN!B14,"")</f>
         <v>Go right to select a game type</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="D14" s="7" t="str">
         <f>IF(enEN!C14&lt;&gt;0,enEN!C14,"")</f>
         <v>Examples for the "game type" are Wrath, Classic, and Retail</v>
@@ -18969,6 +19320,9 @@
         <f>IF(enEN!B15&lt;&gt;0,enEN!B15,"")</f>
         <v>Go right to select a language</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>482</v>
+      </c>
       <c r="D15" s="7" t="str">
         <f>IF(enEN!C15&lt;&gt;0,enEN!C15,"")</f>
         <v/>
@@ -18983,6 +19337,9 @@
         <f>IF(enEN!B16&lt;&gt;0,enEN!B16,"")</f>
         <v>Pause mode</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="D16" s="7" t="str">
         <f>IF(enEN!C16&lt;&gt;0,enEN!C16,"")</f>
         <v/>
@@ -18997,6 +19354,9 @@
         <f>IF(enEN!B17&lt;&gt;0,enEN!B17,"")</f>
         <v>Play mode</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="D17" s="7" t="str">
         <f>IF(enEN!C17&lt;&gt;0,enEN!C17,"")</f>
         <v/>
@@ -19011,6 +19371,9 @@
         <f>IF(enEN!B18&lt;&gt;0,enEN!B18,"")</f>
         <v>Login mode</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>485</v>
+      </c>
       <c r="D18" s="7" t="str">
         <f>IF(enEN!C18&lt;&gt;0,enEN!C18,"")</f>
         <v/>
@@ -19025,6 +19388,9 @@
         <f>IF(enEN!B19&lt;&gt;0,enEN!B19,"")</f>
         <v>Login mode for</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="D19" s="7" t="str">
         <f>IF(enEN!C19&lt;&gt;0,enEN!C19,"")</f>
         <v/>
@@ -19039,6 +19405,9 @@
         <f>IF(enEN!B20&lt;&gt;0,enEN!B20,"")</f>
         <v>Terminated</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="D20" s="7" t="str">
         <f>IF(enEN!C20&lt;&gt;0,enEN!C20,"")</f>
         <v/>
@@ -19053,6 +19422,9 @@
         <f>IF(enEN!B21&lt;&gt;0,enEN!B21,"")</f>
         <v>Select language</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>488</v>
+      </c>
       <c r="D21" s="7" t="str">
         <f>IF(enEN!C21&lt;&gt;0,enEN!C21,"")</f>
         <v/>
@@ -19067,6 +19439,9 @@
         <f>IF(enEN!B22&lt;&gt;0,enEN!B22,"")</f>
         <v>Main menu</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="D22" s="7" t="str">
         <f>IF(enEN!C22&lt;&gt;0,enEN!C22,"")</f>
         <v/>
@@ -19081,6 +19456,9 @@
         <f>IF(enEN!B23&lt;&gt;0,enEN!B23,"")</f>
         <v>selected. Restarting script to apply. Please wait.</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>490</v>
+      </c>
       <c r="D23" s="7" t="str">
         <f>IF(enEN!C23&lt;&gt;0,enEN!C23,"")</f>
         <v>Part of the phrase "Character x selected, restarting script to apply."</v>
@@ -19095,6 +19473,9 @@
         <f>IF(enEN!B24&lt;&gt;0,enEN!B24,"")</f>
         <v>Wait</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="D24" s="7" t="str">
         <f>IF(enEN!C24&lt;&gt;0,enEN!C24,"")</f>
         <v>verb</v>
@@ -19109,6 +19490,9 @@
         <f>IF(enEN!B25&lt;&gt;0,enEN!B25,"")</f>
         <v>Go right to select a region</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>492</v>
+      </c>
       <c r="D25" s="7" t="str">
         <f>IF(enEN!C25&lt;&gt;0,enEN!C25,"")</f>
         <v/>
@@ -19123,6 +19507,9 @@
         <f>IF(enEN!B26&lt;&gt;0,enEN!B26,"")</f>
         <v>Europe</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="D26" s="7" t="str">
         <f>IF(enEN!C26&lt;&gt;0,enEN!C26,"")</f>
         <v/>
@@ -19137,6 +19524,9 @@
         <f>IF(enEN!B27&lt;&gt;0,enEN!B27,"")</f>
         <v>USA</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="D27" s="7" t="str">
         <f>IF(enEN!C27&lt;&gt;0,enEN!C27,"")</f>
         <v/>
@@ -19151,6 +19541,9 @@
         <f>IF(enEN!B28&lt;&gt;0,enEN!B28,"")</f>
         <v>Wrath of the Lich King</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D28" s="7" t="str">
         <f>IF(enEN!C28&lt;&gt;0,enEN!C28,"")</f>
         <v/>
@@ -19165,6 +19558,9 @@
         <f>IF(enEN!B29&lt;&gt;0,enEN!B29,"")</f>
         <v>Classic Era</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>496</v>
+      </c>
       <c r="D29" s="7" t="str">
         <f>IF(enEN!C29&lt;&gt;0,enEN!C29,"")</f>
         <v/>
@@ -19179,6 +19575,9 @@
         <f>IF(enEN!B30&lt;&gt;0,enEN!B30,"")</f>
         <v>Retail</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>497</v>
+      </c>
       <c r="D30" s="7" t="str">
         <f>IF(enEN!C30&lt;&gt;0,enEN!C30,"")</f>
         <v/>
@@ -19193,6 +19592,9 @@
         <f>IF(enEN!B31&lt;&gt;0,enEN!B31,"")</f>
         <v>Not_available</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="D31" s="7" t="str">
         <f>IF(enEN!C31&lt;&gt;0,enEN!C31,"")</f>
         <v>Replace all spaces with underscore (_) in the translated string!</v>
@@ -19207,6 +19609,9 @@
         <f>IF(enEN!B32&lt;&gt;0,enEN!B32,"")</f>
         <v>Something went wrong. Please restart the game and try again.</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>499</v>
+      </c>
       <c r="D32" s="7" t="str">
         <f>IF(enEN!C32&lt;&gt;0,enEN!C32,"")</f>
         <v/>
@@ -19221,6 +19626,9 @@
         <f>IF(enEN!B33&lt;&gt;0,enEN!B33,"")</f>
         <v>You don't have any characters on the selected server</v>
       </c>
+      <c r="C33" s="4" t="s">
+        <v>500</v>
+      </c>
       <c r="D33" s="7" t="str">
         <f>IF(enEN!C33&lt;&gt;0,enEN!C33,"")</f>
         <v/>
@@ -19235,6 +19643,9 @@
         <f>IF(enEN!B34&lt;&gt;0,enEN!B34,"")</f>
         <v>character</v>
       </c>
+      <c r="C34" s="4" t="s">
+        <v>501</v>
+      </c>
       <c r="D34" s="7" t="str">
         <f>IF(enEN!C34&lt;&gt;0,enEN!C34,"")</f>
         <v/>
@@ -19249,6 +19660,9 @@
         <f>IF(enEN!B35&lt;&gt;0,enEN!B35,"")</f>
         <v>selected</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="D35" s="7" t="str">
         <f>IF(enEN!C35&lt;&gt;0,enEN!C35,"")</f>
         <v>verb</v>
@@ -19263,6 +19677,9 @@
         <f>IF(enEN!B36&lt;&gt;0,enEN!B36,"")</f>
         <v>This race is locked for your account. Try a different race.</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>502</v>
+      </c>
       <c r="D36" s="7" t="str">
         <f>IF(enEN!C36&lt;&gt;0,enEN!C36,"")</f>
         <v/>
@@ -19277,6 +19694,9 @@
         <f>IF(enEN!B37&lt;&gt;0,enEN!B37,"")</f>
         <v>Create new character</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>503</v>
+      </c>
       <c r="D37" s="7" t="str">
         <f>IF(enEN!C37&lt;&gt;0,enEN!C37,"")</f>
         <v/>
@@ -19291,6 +19711,9 @@
         <f>IF(enEN!B38&lt;&gt;0,enEN!B38,"")</f>
         <v>Login with selected character</v>
       </c>
+      <c r="C38" s="4" t="s">
+        <v>504</v>
+      </c>
       <c r="D38" s="7" t="str">
         <f>IF(enEN!C38&lt;&gt;0,enEN!C38,"")</f>
         <v/>
@@ -19305,6 +19728,9 @@
         <f>IF(enEN!B39&lt;&gt;0,enEN!B39,"")</f>
         <v>Select character</v>
       </c>
+      <c r="C39" s="4" t="s">
+        <v>505</v>
+      </c>
       <c r="D39" s="7" t="str">
         <f>IF(enEN!C39&lt;&gt;0,enEN!C39,"")</f>
         <v/>
@@ -19319,6 +19745,9 @@
         <f>IF(enEN!B40&lt;&gt;0,enEN!B40,"")</f>
         <v>Enter the name for the new character and press enter, or escape to cancel character creation.</v>
       </c>
+      <c r="C40" s="4" t="s">
+        <v>506</v>
+      </c>
       <c r="D40" s="7" t="str">
         <f>IF(enEN!C40&lt;&gt;0,enEN!C40,"")</f>
         <v/>
@@ -19333,6 +19762,9 @@
         <f>IF(enEN!B41&lt;&gt;0,enEN!B41,"")</f>
         <v>Failed. You already have the maximum number of character on this server.</v>
       </c>
+      <c r="C41" s="4" t="s">
+        <v>507</v>
+      </c>
       <c r="D41" s="7" t="str">
         <f>IF(enEN!C41&lt;&gt;0,enEN!C41,"")</f>
         <v/>
@@ -19347,6 +19779,9 @@
         <f>IF(enEN!B42&lt;&gt;0,enEN!B42,"")</f>
         <v>Changing server. Please wait.</v>
       </c>
+      <c r="C42" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="D42" s="7" t="str">
         <f>IF(enEN!C42&lt;&gt;0,enEN!C42,"")</f>
         <v/>
@@ -19361,6 +19796,9 @@
         <f>IF(enEN!B43&lt;&gt;0,enEN!B43,"")</f>
         <v>Deleting failed. Type Delete again and press enter, or press escape to cancel the deleting process.</v>
       </c>
+      <c r="C43" s="4" t="s">
+        <v>509</v>
+      </c>
       <c r="D43" s="7" t="str">
         <f>IF(enEN!C43&lt;&gt;0,enEN!C43,"")</f>
         <v/>
@@ -19375,6 +19813,9 @@
         <f>IF(enEN!B44&lt;&gt;0,enEN!B44,"")</f>
         <v>Character deleted</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="D44" s="7" t="str">
         <f>IF(enEN!C44&lt;&gt;0,enEN!C44,"")</f>
         <v/>
@@ -19389,6 +19830,9 @@
         <f>IF(enEN!B45&lt;&gt;0,enEN!B45,"")</f>
         <v>Failed. The name is not available, or the name is not allowed.</v>
       </c>
+      <c r="C45" s="4" t="s">
+        <v>511</v>
+      </c>
       <c r="D45" s="7" t="str">
         <f>IF(enEN!C45&lt;&gt;0,enEN!C45,"")</f>
         <v/>
@@ -19403,6 +19847,9 @@
         <f>IF(enEN!B46&lt;&gt;0,enEN!B46,"")</f>
         <v>Character created</v>
       </c>
+      <c r="C46" s="4" t="s">
+        <v>512</v>
+      </c>
       <c r="D46" s="7" t="str">
         <f>IF(enEN!C46&lt;&gt;0,enEN!C46,"")</f>
         <v/>
@@ -19417,6 +19864,9 @@
         <f>IF(enEN!B47&lt;&gt;0,enEN!B47,"")</f>
         <v>Empty. No characters on this server.</v>
       </c>
+      <c r="C47" s="4" t="s">
+        <v>513</v>
+      </c>
       <c r="D47" s="7" t="str">
         <f>IF(enEN!C47&lt;&gt;0,enEN!C47,"")</f>
         <v/>
@@ -19431,6 +19881,9 @@
         <f>IF(enEN!B48&lt;&gt;0,enEN!B48,"")</f>
         <v>Change server</v>
       </c>
+      <c r="C48" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="D48" s="7" t="str">
         <f>IF(enEN!C48&lt;&gt;0,enEN!C48,"")</f>
         <v/>
@@ -19445,6 +19898,9 @@
         <f>IF(enEN!B49&lt;&gt;0,enEN!B49,"")</f>
         <v>Select region</v>
       </c>
+      <c r="C49" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="D49" s="7" t="str">
         <f>IF(enEN!C49&lt;&gt;0,enEN!C49,"")</f>
         <v/>
@@ -19459,6 +19915,9 @@
         <f>IF(enEN!B50&lt;&gt;0,enEN!B50,"")</f>
         <v>Select game type</v>
       </c>
+      <c r="C50" s="4" t="s">
+        <v>516</v>
+      </c>
       <c r="D50" s="7" t="str">
         <f>IF(enEN!C50&lt;&gt;0,enEN!C50,"")</f>
         <v/>
@@ -19473,6 +19932,9 @@
         <f>IF(enEN!B51&lt;&gt;0,enEN!B51,"")</f>
         <v>Select voice</v>
       </c>
+      <c r="C51" s="4" t="s">
+        <v>517</v>
+      </c>
       <c r="D51" s="7" t="str">
         <f>IF(enEN!C51&lt;&gt;0,enEN!C51,"")</f>
         <v/>
@@ -19487,6 +19949,9 @@
         <f>IF(enEN!B52&lt;&gt;0,enEN!B52,"")</f>
         <v>Enter Delete and press enter, or press escape to cancel the deleting process.</v>
       </c>
+      <c r="C52" s="4" t="s">
+        <v>518</v>
+      </c>
       <c r="D52" s="7" t="str">
         <f>IF(enEN!C52&lt;&gt;0,enEN!C52,"")</f>
         <v/>
@@ -19501,6 +19966,9 @@
         <f>IF(enEN!B53&lt;&gt;0,enEN!B53,"")</f>
         <v>Delete character</v>
       </c>
+      <c r="C53" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="D53" s="7" t="str">
         <f>IF(enEN!C53&lt;&gt;0,enEN!C53,"")</f>
         <v/>
@@ -19515,6 +19983,9 @@
         <f>IF(enEN!B54&lt;&gt;0,enEN!B54,"")</f>
         <v>Server changed</v>
       </c>
+      <c r="C54" s="4" t="s">
+        <v>520</v>
+      </c>
       <c r="D54" s="7" t="str">
         <f>IF(enEN!C54&lt;&gt;0,enEN!C54,"")</f>
         <v/>
@@ -19529,6 +20000,9 @@
         <f>IF(enEN!B55&lt;&gt;0,enEN!B55,"")</f>
         <v>The server is full. You are in the queue.</v>
       </c>
+      <c r="C55" s="4" t="s">
+        <v>521</v>
+      </c>
       <c r="D55" s="7" t="str">
         <f>IF(enEN!C55&lt;&gt;0,enEN!C55,"")</f>
         <v/>
@@ -19543,6 +20017,9 @@
         <f>IF(enEN!B56&lt;&gt;0,enEN!B56,"")</f>
         <v>Please wait.</v>
       </c>
+      <c r="C56" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="D56" s="7" t="str">
         <f>IF(enEN!C56&lt;&gt;0,enEN!C56,"")</f>
         <v/>
@@ -19557,6 +20034,9 @@
         <f>IF(enEN!B57&lt;&gt;0,enEN!B57,"")</f>
         <v>Creation is canceled. Please wait.</v>
       </c>
+      <c r="C57" s="4" t="s">
+        <v>523</v>
+      </c>
       <c r="D57" s="7" t="str">
         <f>IF(enEN!C57&lt;&gt;0,enEN!C57,"")</f>
         <v/>
@@ -19571,6 +20051,9 @@
         <f>IF(enEN!B58&lt;&gt;0,enEN!B58,"")</f>
         <v>Deleting is canceled. Please wait</v>
       </c>
+      <c r="C58" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="D58" s="7" t="str">
         <f>IF(enEN!C58&lt;&gt;0,enEN!C58,"")</f>
         <v/>
@@ -19585,6 +20068,9 @@
         <f>IF(enEN!B59&lt;&gt;0,enEN!B59,"")</f>
         <v>Setup mode</v>
       </c>
+      <c r="C59" s="4" t="s">
+        <v>525</v>
+      </c>
       <c r="D59" s="7" t="str">
         <f>IF(enEN!C59&lt;&gt;0,enEN!C59,"")</f>
         <v/>
@@ -19599,6 +20085,9 @@
         <f>IF(enEN!B60&lt;&gt;0,enEN!B60,"")</f>
         <v>The server is full. You are in the queue.</v>
       </c>
+      <c r="C60" s="4" t="s">
+        <v>521</v>
+      </c>
       <c r="D60" s="7" t="str">
         <f>IF(enEN!C60&lt;&gt;0,enEN!C60,"")</f>
         <v/>
@@ -19613,6 +20102,9 @@
         <f>IF(enEN!B61&lt;&gt;0,enEN!B61,"")</f>
         <v>Character number:</v>
       </c>
+      <c r="C61" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="D61" s="7" t="str">
         <f>IF(enEN!C61&lt;&gt;0,enEN!C61,"")</f>
         <v/>
@@ -19627,6 +20119,9 @@
         <f>IF(enEN!B62&lt;&gt;0,enEN!B62,"")</f>
         <v>Failed. Client is reporting an incorrect client language for this server. Server not switched.</v>
       </c>
+      <c r="C62" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="D62" s="7" t="str">
         <f>IF(enEN!C62&lt;&gt;0,enEN!C62,"")</f>
         <v/>
@@ -19641,6 +20136,9 @@
         <f>IF(enEN!B63&lt;&gt;0,enEN!B63,"")</f>
         <v>Exile's Reach</v>
       </c>
+      <c r="C63" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="D63" s="7" t="str">
         <f>IF(enEN!C63&lt;&gt;0,enEN!C63,"")</f>
         <v>Starting zone name. Provide the exact translated zone name from the game. Do not just translate. Use this link https://www.wowhead.com/en/zone=10424 and replace /en/ by your language code if you don't know the zone name.</v>
@@ -19655,6 +20153,9 @@
         <f>IF(enEN!B64&lt;&gt;0,enEN!B64,"")</f>
         <v>Race starting zone</v>
       </c>
+      <c r="C64" s="4" t="s">
+        <v>529</v>
+      </c>
       <c r="D64" s="7" t="str">
         <f>IF(enEN!C64&lt;&gt;0,enEN!C64,"")</f>
         <v>The starting zone for a specific race like Human, Orc, Dwarf, etc.</v>
@@ -19669,6 +20170,9 @@
         <f>IF(enEN!B65&lt;&gt;0,enEN!B65,"")</f>
         <v>male</v>
       </c>
+      <c r="C65" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="D65" s="7" t="str">
         <f>IF(enEN!C65&lt;&gt;0,enEN!C65,"")</f>
         <v>adjective</v>
@@ -19683,6 +20187,9 @@
         <f>IF(enEN!B66&lt;&gt;0,enEN!B66,"")</f>
         <v>female</v>
       </c>
+      <c r="C66" s="4" t="s">
+        <v>531</v>
+      </c>
       <c r="D66" s="7" t="str">
         <f>IF(enEN!C66&lt;&gt;0,enEN!C66,"")</f>
         <v>adjective</v>
@@ -19697,6 +20204,9 @@
         <f>IF(enEN!B67&lt;&gt;0,enEN!B67,"")</f>
         <v>Alliance</v>
       </c>
+      <c r="C67" s="4" t="s">
+        <v>532</v>
+      </c>
       <c r="D67" s="7" t="str">
         <f>IF(enEN!C67&lt;&gt;0,enEN!C67,"")</f>
         <v/>
@@ -19711,6 +20221,9 @@
         <f>IF(enEN!B68&lt;&gt;0,enEN!B68,"")</f>
         <v>Horde</v>
       </c>
+      <c r="C68" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="D68" s="7" t="str">
         <f>IF(enEN!C68&lt;&gt;0,enEN!C68,"")</f>
         <v/>
@@ -19725,6 +20238,9 @@
         <f>IF(enEN!B69&lt;&gt;0,enEN!B69,"")</f>
         <v>Human</v>
       </c>
+      <c r="C69" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="D69" s="7" t="str">
         <f>IF(enEN!C69&lt;&gt;0,enEN!C69,"")</f>
         <v>Race. Provide the exact translation from the game. Not just some free translation. Use this link https://www.wowhead.com/en/races to find the translated name. Replace /en/ by your language code.</v>
@@ -19739,6 +20255,9 @@
         <f>IF(enEN!B70&lt;&gt;0,enEN!B70,"")</f>
         <v>Dwarf</v>
       </c>
+      <c r="C70" s="4" t="s">
+        <v>535</v>
+      </c>
       <c r="D70" s="7" t="str">
         <f>IF(enEN!C70&lt;&gt;0,enEN!C70,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19753,6 +20272,9 @@
         <f>IF(enEN!B71&lt;&gt;0,enEN!B71,"")</f>
         <v>Night Elf</v>
       </c>
+      <c r="C71" s="4" t="s">
+        <v>536</v>
+      </c>
       <c r="D71" s="7" t="str">
         <f>IF(enEN!C71&lt;&gt;0,enEN!C71,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19767,6 +20289,9 @@
         <f>IF(enEN!B72&lt;&gt;0,enEN!B72,"")</f>
         <v>Gnome</v>
       </c>
+      <c r="C72" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="D72" s="7" t="str">
         <f>IF(enEN!C72&lt;&gt;0,enEN!C72,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19781,6 +20306,9 @@
         <f>IF(enEN!B73&lt;&gt;0,enEN!B73,"")</f>
         <v>Draenei</v>
       </c>
+      <c r="C73" s="4" t="s">
+        <v>538</v>
+      </c>
       <c r="D73" s="7" t="str">
         <f>IF(enEN!C73&lt;&gt;0,enEN!C73,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19795,6 +20323,9 @@
         <f>IF(enEN!B74&lt;&gt;0,enEN!B74,"")</f>
         <v>Worgen</v>
       </c>
+      <c r="C74" s="4" t="s">
+        <v>539</v>
+      </c>
       <c r="D74" s="7" t="str">
         <f>IF(enEN!C74&lt;&gt;0,enEN!C74,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19809,6 +20340,9 @@
         <f>IF(enEN!B75&lt;&gt;0,enEN!B75,"")</f>
         <v>Pandaren (Alliance)</v>
       </c>
+      <c r="C75" s="4" t="s">
+        <v>540</v>
+      </c>
       <c r="D75" s="7" t="str">
         <f>IF(enEN!C75&lt;&gt;0,enEN!C75,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19823,6 +20357,9 @@
         <f>IF(enEN!B76&lt;&gt;0,enEN!B76,"")</f>
         <v>Dracthyr (Alliance)</v>
       </c>
+      <c r="C76" s="4" t="s">
+        <v>541</v>
+      </c>
       <c r="D76" s="7" t="str">
         <f>IF(enEN!C76&lt;&gt;0,enEN!C76,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19837,6 +20374,9 @@
         <f>IF(enEN!B77&lt;&gt;0,enEN!B77,"")</f>
         <v>Void Elf</v>
       </c>
+      <c r="C77" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="D77" s="7" t="str">
         <f>IF(enEN!C77&lt;&gt;0,enEN!C77,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19851,6 +20391,9 @@
         <f>IF(enEN!B78&lt;&gt;0,enEN!B78,"")</f>
         <v>Light Forge Draenei</v>
       </c>
+      <c r="C78" s="4" t="s">
+        <v>543</v>
+      </c>
       <c r="D78" s="7" t="str">
         <f>IF(enEN!C78&lt;&gt;0,enEN!C78,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19865,6 +20408,9 @@
         <f>IF(enEN!B79&lt;&gt;0,enEN!B79,"")</f>
         <v>Dark Iron Dwarf</v>
       </c>
+      <c r="C79" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="D79" s="7" t="str">
         <f>IF(enEN!C79&lt;&gt;0,enEN!C79,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19879,6 +20425,9 @@
         <f>IF(enEN!B80&lt;&gt;0,enEN!B80,"")</f>
         <v>Kul Tiran</v>
       </c>
+      <c r="C80" s="4" t="s">
+        <v>545</v>
+      </c>
       <c r="D80" s="7" t="str">
         <f>IF(enEN!C80&lt;&gt;0,enEN!C80,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19893,6 +20442,9 @@
         <f>IF(enEN!B81&lt;&gt;0,enEN!B81,"")</f>
         <v>Mecha Gnome</v>
       </c>
+      <c r="C81" s="4" t="s">
+        <v>546</v>
+      </c>
       <c r="D81" s="7" t="str">
         <f>IF(enEN!C81&lt;&gt;0,enEN!C81,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19907,6 +20459,9 @@
         <f>IF(enEN!B82&lt;&gt;0,enEN!B82,"")</f>
         <v>Orc</v>
       </c>
+      <c r="C82" s="4" t="s">
+        <v>547</v>
+      </c>
       <c r="D82" s="7" t="str">
         <f>IF(enEN!C82&lt;&gt;0,enEN!C82,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19921,6 +20476,9 @@
         <f>IF(enEN!B83&lt;&gt;0,enEN!B83,"")</f>
         <v>Undead</v>
       </c>
+      <c r="C83" s="4" t="s">
+        <v>548</v>
+      </c>
       <c r="D83" s="7" t="str">
         <f>IF(enEN!C83&lt;&gt;0,enEN!C83,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19935,6 +20493,9 @@
         <f>IF(enEN!B84&lt;&gt;0,enEN!B84,"")</f>
         <v>Tauren</v>
       </c>
+      <c r="C84" s="4" t="s">
+        <v>549</v>
+      </c>
       <c r="D84" s="7" t="str">
         <f>IF(enEN!C84&lt;&gt;0,enEN!C84,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19949,6 +20510,9 @@
         <f>IF(enEN!B85&lt;&gt;0,enEN!B85,"")</f>
         <v>Troll</v>
       </c>
+      <c r="C85" s="4" t="s">
+        <v>550</v>
+      </c>
       <c r="D85" s="7" t="str">
         <f>IF(enEN!C85&lt;&gt;0,enEN!C85,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19963,6 +20527,9 @@
         <f>IF(enEN!B86&lt;&gt;0,enEN!B86,"")</f>
         <v>Blood Elf</v>
       </c>
+      <c r="C86" s="4" t="s">
+        <v>551</v>
+      </c>
       <c r="D86" s="7" t="str">
         <f>IF(enEN!C86&lt;&gt;0,enEN!C86,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19977,6 +20544,9 @@
         <f>IF(enEN!B87&lt;&gt;0,enEN!B87,"")</f>
         <v>Goblin</v>
       </c>
+      <c r="C87" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="D87" s="7" t="str">
         <f>IF(enEN!C87&lt;&gt;0,enEN!C87,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -19991,6 +20561,9 @@
         <f>IF(enEN!B88&lt;&gt;0,enEN!B88,"")</f>
         <v>Pandaren (Horde)</v>
       </c>
+      <c r="C88" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="D88" s="7" t="str">
         <f>IF(enEN!C88&lt;&gt;0,enEN!C88,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20005,6 +20578,9 @@
         <f>IF(enEN!B89&lt;&gt;0,enEN!B89,"")</f>
         <v>Dracthyr (Horde)</v>
       </c>
+      <c r="C89" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="D89" s="7" t="str">
         <f>IF(enEN!C89&lt;&gt;0,enEN!C89,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20019,6 +20595,9 @@
         <f>IF(enEN!B90&lt;&gt;0,enEN!B90,"")</f>
         <v>Night Borne</v>
       </c>
+      <c r="C90" s="4" t="s">
+        <v>555</v>
+      </c>
       <c r="D90" s="7" t="str">
         <f>IF(enEN!C90&lt;&gt;0,enEN!C90,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20033,6 +20612,9 @@
         <f>IF(enEN!B91&lt;&gt;0,enEN!B91,"")</f>
         <v>High Mountain Tauren</v>
       </c>
+      <c r="C91" s="4" t="s">
+        <v>556</v>
+      </c>
       <c r="D91" s="7" t="str">
         <f>IF(enEN!C91&lt;&gt;0,enEN!C91,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20047,6 +20629,9 @@
         <f>IF(enEN!B92&lt;&gt;0,enEN!B92,"")</f>
         <v>Mag Har Ork</v>
       </c>
+      <c r="C92" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="D92" s="7" t="str">
         <f>IF(enEN!C92&lt;&gt;0,enEN!C92,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20061,6 +20646,9 @@
         <f>IF(enEN!B93&lt;&gt;0,enEN!B93,"")</f>
         <v>Zandalari Troll</v>
       </c>
+      <c r="C93" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="D93" s="7" t="str">
         <f>IF(enEN!C93&lt;&gt;0,enEN!C93,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20075,6 +20663,9 @@
         <f>IF(enEN!B94&lt;&gt;0,enEN!B94,"")</f>
         <v>Vulpera</v>
       </c>
+      <c r="C94" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="D94" s="7" t="str">
         <f>IF(enEN!C94&lt;&gt;0,enEN!C94,"")</f>
         <v>Race. Provide the exact translation from the game.</v>
@@ -20089,6 +20680,9 @@
         <f>IF(enEN!B95&lt;&gt;0,enEN!B95,"")</f>
         <v>Warrior</v>
       </c>
+      <c r="C95" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="D95" s="7" t="str">
         <f>IF(enEN!C95&lt;&gt;0,enEN!C95,"")</f>
         <v>Class. Provide the exact translation from the game. Not just some free translation. Use this link https://www.wowhead.com/en/class=1 to find the translated name. Replace /en/ by your language code and class=1 by the class number.</v>
@@ -20103,6 +20697,9 @@
         <f>IF(enEN!B96&lt;&gt;0,enEN!B96,"")</f>
         <v>Hunter</v>
       </c>
+      <c r="C96" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="D96" s="7" t="str">
         <f>IF(enEN!C96&lt;&gt;0,enEN!C96,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20117,6 +20714,9 @@
         <f>IF(enEN!B97&lt;&gt;0,enEN!B97,"")</f>
         <v>Mage</v>
       </c>
+      <c r="C97" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="D97" s="7" t="str">
         <f>IF(enEN!C97&lt;&gt;0,enEN!C97,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20131,6 +20731,9 @@
         <f>IF(enEN!B98&lt;&gt;0,enEN!B98,"")</f>
         <v>Rogue</v>
       </c>
+      <c r="C98" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="D98" s="7" t="str">
         <f>IF(enEN!C98&lt;&gt;0,enEN!C98,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20145,6 +20748,9 @@
         <f>IF(enEN!B99&lt;&gt;0,enEN!B99,"")</f>
         <v>Priest</v>
       </c>
+      <c r="C99" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="D99" s="7" t="str">
         <f>IF(enEN!C99&lt;&gt;0,enEN!C99,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20159,6 +20765,9 @@
         <f>IF(enEN!B100&lt;&gt;0,enEN!B100,"")</f>
         <v>Warlock</v>
       </c>
+      <c r="C100" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="D100" s="7" t="str">
         <f>IF(enEN!C100&lt;&gt;0,enEN!C100,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20173,6 +20782,9 @@
         <f>IF(enEN!B101&lt;&gt;0,enEN!B101,"")</f>
         <v>Paladin</v>
       </c>
+      <c r="C101" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="D101" s="7" t="str">
         <f>IF(enEN!C101&lt;&gt;0,enEN!C101,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20187,6 +20799,9 @@
         <f>IF(enEN!B102&lt;&gt;0,enEN!B102,"")</f>
         <v>Druid</v>
       </c>
+      <c r="C102" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="D102" s="7" t="str">
         <f>IF(enEN!C102&lt;&gt;0,enEN!C102,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20201,6 +20816,9 @@
         <f>IF(enEN!B103&lt;&gt;0,enEN!B103,"")</f>
         <v>Shaman</v>
       </c>
+      <c r="C103" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="D103" s="7" t="str">
         <f>IF(enEN!C103&lt;&gt;0,enEN!C103,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20215,6 +20833,9 @@
         <f>IF(enEN!B104&lt;&gt;0,enEN!B104,"")</f>
         <v>Monk</v>
       </c>
+      <c r="C104" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="D104" s="7" t="str">
         <f>IF(enEN!C104&lt;&gt;0,enEN!C104,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20229,6 +20850,9 @@
         <f>IF(enEN!B105&lt;&gt;0,enEN!B105,"")</f>
         <v>Demon Hunter</v>
       </c>
+      <c r="C105" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="D105" s="7" t="str">
         <f>IF(enEN!C105&lt;&gt;0,enEN!C105,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20243,6 +20867,9 @@
         <f>IF(enEN!B106&lt;&gt;0,enEN!B106,"")</f>
         <v>Death Knight</v>
       </c>
+      <c r="C106" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="D106" s="7" t="str">
         <f>IF(enEN!C106&lt;&gt;0,enEN!C106,"")</f>
         <v>Class. Provide the exact translation from the game.</v>
@@ -20256,6 +20883,9 @@
       <c r="B107" t="str">
         <f>IF(enEN!B107&lt;&gt;0,enEN!B107,"")</f>
         <v>Evoker</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="D107" s="7" t="str">
         <f>IF(enEN!C107&lt;&gt;0,enEN!C107,"")</f>

--- a/data/localization/translations.xlsx
+++ b/data/localization/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 projects\Sku\source\WoW Login Tool\data\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BF4E19-69CF-49A2-AF87-745F081CE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E50F20-3BD6-447D-9967-839C982D7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="-118" windowWidth="32296" windowHeight="19087" xr2:uid="{A84878E2-67FC-4B57-8505-6F1FA03CFFA1}"/>
   </bookViews>
@@ -884,9 +884,6 @@
     <t>Replace all spaces with underscore (_) in the translated string!</t>
   </si>
   <si>
-    <t>1. Select the tab for your language code (example: frFR for French)!</t>
-  </si>
-  <si>
     <t>3. Read and take into account the context information on each string in column D (green)!</t>
   </si>
   <si>
@@ -1101,9 +1098,6 @@
   </si>
   <si>
     <t>Mort-vivant</t>
-  </si>
-  <si>
-    <t>Elf du sang</t>
   </si>
   <si>
     <t>Gobelin</t>
@@ -1709,9 +1703,6 @@
     <t>Пандарены (Орда)</t>
   </si>
   <si>
-    <t>Дактиры (Орда)</t>
-  </si>
-  <si>
     <t>Ночнорождённые</t>
   </si>
   <si>
@@ -1764,6 +1755,15 @@
   </si>
   <si>
     <t>Пробудитель</t>
+  </si>
+  <si>
+    <t>Elf de sang</t>
+  </si>
+  <si>
+    <t>Драктиры (Орда)</t>
+  </si>
+  <si>
+    <t>1. Select the tab for your language code (example: frFR for French)</t>
   </si>
 </sst>
 </file>
@@ -2158,22 +2158,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.2" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>279</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="26.2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="26.2" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -11150,7 +11150,7 @@
   <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -11186,7 +11186,7 @@
         <v>English</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>IF(enEN!C2&lt;&gt;0,enEN!C2,"")</f>
@@ -11203,7 +11203,7 @@
         <v>German</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>IF(enEN!C3&lt;&gt;0,enEN!C3,"")</f>
@@ -11220,7 +11220,7 @@
         <v>French</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>IF(enEN!C4&lt;&gt;0,enEN!C4,"")</f>
@@ -11237,7 +11237,7 @@
         <v>Russian</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>IF(enEN!C5&lt;&gt;0,enEN!C5,"")</f>
@@ -11254,7 +11254,7 @@
         <v>Spanish</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>IF(enEN!C6&lt;&gt;0,enEN!C6,"")</f>
@@ -11271,7 +11271,7 @@
         <v>Italian</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>IF(enEN!C7&lt;&gt;0,enEN!C7,"")</f>
@@ -11288,7 +11288,7 @@
         <v>Portuguese</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>IF(enEN!C8&lt;&gt;0,enEN!C8,"")</f>
@@ -11305,7 +11305,7 @@
         <v>Korean</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>IF(enEN!C9&lt;&gt;0,enEN!C9,"")</f>
@@ -11322,7 +11322,7 @@
         <v>Chinese</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>IF(enEN!C10&lt;&gt;0,enEN!C10,"")</f>
@@ -11339,7 +11339,7 @@
         <v>Setup completed. Start the game now.</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>IF(enEN!C11&lt;&gt;0,enEN!C11,"")</f>
@@ -11356,7 +11356,7 @@
         <v>selected</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>IF(enEN!C12&lt;&gt;0,enEN!C12,"")</f>
@@ -11373,7 +11373,7 @@
         <v>Go right to select a voice</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>IF(enEN!C13&lt;&gt;0,enEN!C13,"")</f>
@@ -11390,7 +11390,7 @@
         <v>Go right to select a game type</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>IF(enEN!C14&lt;&gt;0,enEN!C14,"")</f>
@@ -11407,7 +11407,7 @@
         <v>Go right to select a language</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>IF(enEN!C15&lt;&gt;0,enEN!C15,"")</f>
@@ -11424,7 +11424,7 @@
         <v>Pause mode</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>IF(enEN!C16&lt;&gt;0,enEN!C16,"")</f>
@@ -11441,7 +11441,7 @@
         <v>Play mode</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>IF(enEN!C17&lt;&gt;0,enEN!C17,"")</f>
@@ -11458,7 +11458,7 @@
         <v>Login mode</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>IF(enEN!C18&lt;&gt;0,enEN!C18,"")</f>
@@ -11475,7 +11475,7 @@
         <v>Login mode for</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>IF(enEN!C19&lt;&gt;0,enEN!C19,"")</f>
@@ -11492,7 +11492,7 @@
         <v>Terminated</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>IF(enEN!C20&lt;&gt;0,enEN!C20,"")</f>
@@ -11509,7 +11509,7 @@
         <v>Select language</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>IF(enEN!C21&lt;&gt;0,enEN!C21,"")</f>
@@ -11526,7 +11526,7 @@
         <v>Main menu</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>IF(enEN!C22&lt;&gt;0,enEN!C22,"")</f>
@@ -11543,7 +11543,7 @@
         <v>selected. Restarting script to apply. Please wait.</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>IF(enEN!C23&lt;&gt;0,enEN!C23,"")</f>
@@ -11560,7 +11560,7 @@
         <v>Wait</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>IF(enEN!C24&lt;&gt;0,enEN!C24,"")</f>
@@ -11577,7 +11577,7 @@
         <v>Go right to select a region</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>IF(enEN!C25&lt;&gt;0,enEN!C25,"")</f>
@@ -11611,7 +11611,7 @@
         <v>USA</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>IF(enEN!C27&lt;&gt;0,enEN!C27,"")</f>
@@ -11628,7 +11628,7 @@
         <v>Wrath of the Lich King</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D28" s="7" t="str">
         <f>IF(enEN!C28&lt;&gt;0,enEN!C28,"")</f>
@@ -11645,7 +11645,7 @@
         <v>Classic Era</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>IF(enEN!C29&lt;&gt;0,enEN!C29,"")</f>
@@ -11679,7 +11679,7 @@
         <v>Not_available</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D31" s="7" t="str">
         <f>IF(enEN!C31&lt;&gt;0,enEN!C31,"")</f>
@@ -11696,7 +11696,7 @@
         <v>Something went wrong. Please restart the game and try again.</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D32" s="7" t="str">
         <f>IF(enEN!C32&lt;&gt;0,enEN!C32,"")</f>
@@ -11713,7 +11713,7 @@
         <v>You don't have any characters on the selected server</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D33" s="7" t="str">
         <f>IF(enEN!C33&lt;&gt;0,enEN!C33,"")</f>
@@ -11730,7 +11730,7 @@
         <v>character</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D34" s="7" t="str">
         <f>IF(enEN!C34&lt;&gt;0,enEN!C34,"")</f>
@@ -11747,7 +11747,7 @@
         <v>selected</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D35" s="7" t="str">
         <f>IF(enEN!C35&lt;&gt;0,enEN!C35,"")</f>
@@ -11764,7 +11764,7 @@
         <v>This race is locked for your account. Try a different race.</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(enEN!C36&lt;&gt;0,enEN!C36,"")</f>
@@ -11781,7 +11781,7 @@
         <v>Create new character</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>IF(enEN!C37&lt;&gt;0,enEN!C37,"")</f>
@@ -11798,7 +11798,7 @@
         <v>Login with selected character</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D38" s="7" t="str">
         <f>IF(enEN!C38&lt;&gt;0,enEN!C38,"")</f>
@@ -11815,7 +11815,7 @@
         <v>Select character</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D39" s="7" t="str">
         <f>IF(enEN!C39&lt;&gt;0,enEN!C39,"")</f>
@@ -11832,7 +11832,7 @@
         <v>Enter the name for the new character and press enter, or escape to cancel character creation.</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>IF(enEN!C40&lt;&gt;0,enEN!C40,"")</f>
@@ -11849,7 +11849,7 @@
         <v>Failed. You already have the maximum number of character on this server.</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>IF(enEN!C41&lt;&gt;0,enEN!C41,"")</f>
@@ -11866,7 +11866,7 @@
         <v>Changing server. Please wait.</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D42" s="7" t="str">
         <f>IF(enEN!C42&lt;&gt;0,enEN!C42,"")</f>
@@ -11883,7 +11883,7 @@
         <v>Deleting failed. Type Delete again and press enter, or press escape to cancel the deleting process.</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D43" s="7" t="str">
         <f>IF(enEN!C43&lt;&gt;0,enEN!C43,"")</f>
@@ -11900,7 +11900,7 @@
         <v>Character deleted</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D44" s="7" t="str">
         <f>IF(enEN!C44&lt;&gt;0,enEN!C44,"")</f>
@@ -11917,7 +11917,7 @@
         <v>Failed. The name is not available, or the name is not allowed.</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D45" s="7" t="str">
         <f>IF(enEN!C45&lt;&gt;0,enEN!C45,"")</f>
@@ -11934,7 +11934,7 @@
         <v>Character created</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D46" s="7" t="str">
         <f>IF(enEN!C46&lt;&gt;0,enEN!C46,"")</f>
@@ -11951,7 +11951,7 @@
         <v>Empty. No characters on this server.</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D47" s="7" t="str">
         <f>IF(enEN!C47&lt;&gt;0,enEN!C47,"")</f>
@@ -11968,7 +11968,7 @@
         <v>Change server</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D48" s="7" t="str">
         <f>IF(enEN!C48&lt;&gt;0,enEN!C48,"")</f>
@@ -11985,7 +11985,7 @@
         <v>Select region</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D49" s="7" t="str">
         <f>IF(enEN!C49&lt;&gt;0,enEN!C49,"")</f>
@@ -12002,7 +12002,7 @@
         <v>Select game type</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D50" s="7" t="str">
         <f>IF(enEN!C50&lt;&gt;0,enEN!C50,"")</f>
@@ -12019,7 +12019,7 @@
         <v>Select voice</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D51" s="7" t="str">
         <f>IF(enEN!C51&lt;&gt;0,enEN!C51,"")</f>
@@ -12036,7 +12036,7 @@
         <v>Enter Delete and press enter, or press escape to cancel the deleting process.</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>IF(enEN!C52&lt;&gt;0,enEN!C52,"")</f>
@@ -12053,7 +12053,7 @@
         <v>Delete character</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" s="7" t="str">
         <f>IF(enEN!C53&lt;&gt;0,enEN!C53,"")</f>
@@ -12070,7 +12070,7 @@
         <v>Server changed</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D54" s="7" t="str">
         <f>IF(enEN!C54&lt;&gt;0,enEN!C54,"")</f>
@@ -12087,7 +12087,7 @@
         <v>The server is full. You are in the queue.</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D55" s="7" t="str">
         <f>IF(enEN!C55&lt;&gt;0,enEN!C55,"")</f>
@@ -12104,7 +12104,7 @@
         <v>Please wait.</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D56" s="7" t="str">
         <f>IF(enEN!C56&lt;&gt;0,enEN!C56,"")</f>
@@ -12121,7 +12121,7 @@
         <v>Creation is canceled. Please wait.</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D57" s="7" t="str">
         <f>IF(enEN!C57&lt;&gt;0,enEN!C57,"")</f>
@@ -12138,7 +12138,7 @@
         <v>Deleting is canceled. Please wait</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D58" s="7" t="str">
         <f>IF(enEN!C58&lt;&gt;0,enEN!C58,"")</f>
@@ -12155,7 +12155,7 @@
         <v>Setup mode</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D59" s="7" t="str">
         <f>IF(enEN!C59&lt;&gt;0,enEN!C59,"")</f>
@@ -12172,7 +12172,7 @@
         <v>The server is full. You are in the queue.</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D60" s="7" t="str">
         <f>IF(enEN!C60&lt;&gt;0,enEN!C60,"")</f>
@@ -12189,7 +12189,7 @@
         <v>Character number:</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D61" s="7" t="str">
         <f>IF(enEN!C61&lt;&gt;0,enEN!C61,"")</f>
@@ -12206,7 +12206,7 @@
         <v>Failed. Client is reporting an incorrect client language for this server. Server not switched.</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D62" s="7" t="str">
         <f>IF(enEN!C62&lt;&gt;0,enEN!C62,"")</f>
@@ -12223,7 +12223,7 @@
         <v>Exile's Reach</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D63" s="7" t="str">
         <f>IF(enEN!C63&lt;&gt;0,enEN!C63,"")</f>
@@ -12240,7 +12240,7 @@
         <v>Race starting zone</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D64" s="7" t="str">
         <f>IF(enEN!C64&lt;&gt;0,enEN!C64,"")</f>
@@ -12257,7 +12257,7 @@
         <v>male</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D65" s="7" t="str">
         <f>IF(enEN!C65&lt;&gt;0,enEN!C65,"")</f>
@@ -12274,7 +12274,7 @@
         <v>female</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D66" s="7" t="str">
         <f>IF(enEN!C66&lt;&gt;0,enEN!C66,"")</f>
@@ -12325,7 +12325,7 @@
         <v>Human</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D69" s="7" t="str">
         <f>IF(enEN!C69&lt;&gt;0,enEN!C69,"")</f>
@@ -12342,7 +12342,7 @@
         <v>Dwarf</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D70" s="7" t="str">
         <f>IF(enEN!C70&lt;&gt;0,enEN!C70,"")</f>
@@ -12359,7 +12359,7 @@
         <v>Night Elf</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D71" s="7" t="str">
         <f>IF(enEN!C71&lt;&gt;0,enEN!C71,"")</f>
@@ -12393,7 +12393,7 @@
         <v>Draenei</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" s="7" t="str">
         <f>IF(enEN!C73&lt;&gt;0,enEN!C73,"")</f>
@@ -12461,7 +12461,7 @@
         <v>Void Elf</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D77" s="7" t="str">
         <f>IF(enEN!C77&lt;&gt;0,enEN!C77,"")</f>
@@ -12478,7 +12478,7 @@
         <v>Light Forge Draenei</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D78" s="7" t="str">
         <f>IF(enEN!C78&lt;&gt;0,enEN!C78,"")</f>
@@ -12495,7 +12495,7 @@
         <v>Dark Iron Dwarf</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D79" s="7" t="str">
         <f>IF(enEN!C79&lt;&gt;0,enEN!C79,"")</f>
@@ -12512,7 +12512,7 @@
         <v>Kul Tiran</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D80" s="7" t="str">
         <f>IF(enEN!C80&lt;&gt;0,enEN!C80,"")</f>
@@ -12529,7 +12529,7 @@
         <v>Mecha Gnome</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D81" s="7" t="str">
         <f>IF(enEN!C81&lt;&gt;0,enEN!C81,"")</f>
@@ -12563,7 +12563,7 @@
         <v>Undead</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D83" s="7" t="str">
         <f>IF(enEN!C83&lt;&gt;0,enEN!C83,"")</f>
@@ -12614,7 +12614,7 @@
         <v>Blood Elf</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>352</v>
+        <v>570</v>
       </c>
       <c r="D86" s="7" t="str">
         <f>IF(enEN!C86&lt;&gt;0,enEN!C86,"")</f>
@@ -12631,7 +12631,7 @@
         <v>Goblin</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D87" s="7" t="str">
         <f>IF(enEN!C87&lt;&gt;0,enEN!C87,"")</f>
@@ -12682,7 +12682,7 @@
         <v>Night Borne</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D90" s="7" t="str">
         <f>IF(enEN!C90&lt;&gt;0,enEN!C90,"")</f>
@@ -12699,7 +12699,7 @@
         <v>High Mountain Tauren</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D91" s="7" t="str">
         <f>IF(enEN!C91&lt;&gt;0,enEN!C91,"")</f>
@@ -12716,7 +12716,7 @@
         <v>Mag Har Ork</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D92" s="7" t="str">
         <f>IF(enEN!C92&lt;&gt;0,enEN!C92,"")</f>
@@ -12733,7 +12733,7 @@
         <v>Zandalari Troll</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D93" s="7" t="str">
         <f>IF(enEN!C93&lt;&gt;0,enEN!C93,"")</f>
@@ -12750,7 +12750,7 @@
         <v>Vulpera</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D94" s="7" t="str">
         <f>IF(enEN!C94&lt;&gt;0,enEN!C94,"")</f>
@@ -12767,7 +12767,7 @@
         <v>Warrior</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D95" s="7" t="str">
         <f>IF(enEN!C95&lt;&gt;0,enEN!C95,"")</f>
@@ -12784,7 +12784,7 @@
         <v>Hunter</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D96" s="7" t="str">
         <f>IF(enEN!C96&lt;&gt;0,enEN!C96,"")</f>
@@ -12818,7 +12818,7 @@
         <v>Rogue</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D98" s="7" t="str">
         <f>IF(enEN!C98&lt;&gt;0,enEN!C98,"")</f>
@@ -12835,7 +12835,7 @@
         <v>Priest</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D99" s="7" t="str">
         <f>IF(enEN!C99&lt;&gt;0,enEN!C99,"")</f>
@@ -12852,7 +12852,7 @@
         <v>Warlock</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D100" s="7" t="str">
         <f>IF(enEN!C100&lt;&gt;0,enEN!C100,"")</f>
@@ -12903,7 +12903,7 @@
         <v>Shaman</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D103" s="7" t="str">
         <f>IF(enEN!C103&lt;&gt;0,enEN!C103,"")</f>
@@ -12920,7 +12920,7 @@
         <v>Monk</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D104" s="7" t="str">
         <f>IF(enEN!C104&lt;&gt;0,enEN!C104,"")</f>
@@ -12937,7 +12937,7 @@
         <v>Demon Hunter</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D105" s="7" t="str">
         <f>IF(enEN!C105&lt;&gt;0,enEN!C105,"")</f>
@@ -12954,7 +12954,7 @@
         <v>Death Knight</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D106" s="7" t="str">
         <f>IF(enEN!C106&lt;&gt;0,enEN!C106,"")</f>
@@ -12971,7 +12971,7 @@
         <v>Evoker</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D107" s="7" t="str">
         <f>IF(enEN!C107&lt;&gt;0,enEN!C107,"")</f>
@@ -19069,7 +19069,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="43.77734375" customWidth="1"/>
     <col min="3" max="3" width="43.77734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="43.77734375" style="7" customWidth="1"/>
@@ -19100,7 +19100,7 @@
         <v>English</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>IF(enEN!C2&lt;&gt;0,enEN!C2,"")</f>
@@ -19117,7 +19117,7 @@
         <v>German</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>IF(enEN!C3&lt;&gt;0,enEN!C3,"")</f>
@@ -19134,7 +19134,7 @@
         <v>French</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>IF(enEN!C4&lt;&gt;0,enEN!C4,"")</f>
@@ -19151,7 +19151,7 @@
         <v>Russian</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>IF(enEN!C5&lt;&gt;0,enEN!C5,"")</f>
@@ -19168,7 +19168,7 @@
         <v>Spanish</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>IF(enEN!C6&lt;&gt;0,enEN!C6,"")</f>
@@ -19185,7 +19185,7 @@
         <v>Italian</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>IF(enEN!C7&lt;&gt;0,enEN!C7,"")</f>
@@ -19202,7 +19202,7 @@
         <v>Portuguese</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>IF(enEN!C8&lt;&gt;0,enEN!C8,"")</f>
@@ -19219,7 +19219,7 @@
         <v>Korean</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>IF(enEN!C9&lt;&gt;0,enEN!C9,"")</f>
@@ -19236,7 +19236,7 @@
         <v>Chinese</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>IF(enEN!C10&lt;&gt;0,enEN!C10,"")</f>
@@ -19253,7 +19253,7 @@
         <v>Setup completed. Start the game now.</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>IF(enEN!C11&lt;&gt;0,enEN!C11,"")</f>
@@ -19270,7 +19270,7 @@
         <v>selected</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>IF(enEN!C12&lt;&gt;0,enEN!C12,"")</f>
@@ -19287,7 +19287,7 @@
         <v>Go right to select a voice</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>IF(enEN!C13&lt;&gt;0,enEN!C13,"")</f>
@@ -19304,7 +19304,7 @@
         <v>Go right to select a game type</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>IF(enEN!C14&lt;&gt;0,enEN!C14,"")</f>
@@ -19321,7 +19321,7 @@
         <v>Go right to select a language</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>IF(enEN!C15&lt;&gt;0,enEN!C15,"")</f>
@@ -19338,7 +19338,7 @@
         <v>Pause mode</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>IF(enEN!C16&lt;&gt;0,enEN!C16,"")</f>
@@ -19355,7 +19355,7 @@
         <v>Play mode</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>IF(enEN!C17&lt;&gt;0,enEN!C17,"")</f>
@@ -19372,7 +19372,7 @@
         <v>Login mode</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>IF(enEN!C18&lt;&gt;0,enEN!C18,"")</f>
@@ -19389,7 +19389,7 @@
         <v>Login mode for</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>IF(enEN!C19&lt;&gt;0,enEN!C19,"")</f>
@@ -19406,7 +19406,7 @@
         <v>Terminated</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>IF(enEN!C20&lt;&gt;0,enEN!C20,"")</f>
@@ -19423,7 +19423,7 @@
         <v>Select language</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>IF(enEN!C21&lt;&gt;0,enEN!C21,"")</f>
@@ -19440,7 +19440,7 @@
         <v>Main menu</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>IF(enEN!C22&lt;&gt;0,enEN!C22,"")</f>
@@ -19457,7 +19457,7 @@
         <v>selected. Restarting script to apply. Please wait.</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>IF(enEN!C23&lt;&gt;0,enEN!C23,"")</f>
@@ -19474,7 +19474,7 @@
         <v>Wait</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>IF(enEN!C24&lt;&gt;0,enEN!C24,"")</f>
@@ -19491,7 +19491,7 @@
         <v>Go right to select a region</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>IF(enEN!C25&lt;&gt;0,enEN!C25,"")</f>
@@ -19508,7 +19508,7 @@
         <v>Europe</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D26" s="7" t="str">
         <f>IF(enEN!C26&lt;&gt;0,enEN!C26,"")</f>
@@ -19525,7 +19525,7 @@
         <v>USA</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>IF(enEN!C27&lt;&gt;0,enEN!C27,"")</f>
@@ -19542,7 +19542,7 @@
         <v>Wrath of the Lich King</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D28" s="7" t="str">
         <f>IF(enEN!C28&lt;&gt;0,enEN!C28,"")</f>
@@ -19559,7 +19559,7 @@
         <v>Classic Era</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>IF(enEN!C29&lt;&gt;0,enEN!C29,"")</f>
@@ -19576,7 +19576,7 @@
         <v>Retail</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D30" s="7" t="str">
         <f>IF(enEN!C30&lt;&gt;0,enEN!C30,"")</f>
@@ -19593,7 +19593,7 @@
         <v>Not_available</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D31" s="7" t="str">
         <f>IF(enEN!C31&lt;&gt;0,enEN!C31,"")</f>
@@ -19610,7 +19610,7 @@
         <v>Something went wrong. Please restart the game and try again.</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D32" s="7" t="str">
         <f>IF(enEN!C32&lt;&gt;0,enEN!C32,"")</f>
@@ -19627,7 +19627,7 @@
         <v>You don't have any characters on the selected server</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D33" s="7" t="str">
         <f>IF(enEN!C33&lt;&gt;0,enEN!C33,"")</f>
@@ -19644,7 +19644,7 @@
         <v>character</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D34" s="7" t="str">
         <f>IF(enEN!C34&lt;&gt;0,enEN!C34,"")</f>
@@ -19661,7 +19661,7 @@
         <v>selected</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D35" s="7" t="str">
         <f>IF(enEN!C35&lt;&gt;0,enEN!C35,"")</f>
@@ -19678,7 +19678,7 @@
         <v>This race is locked for your account. Try a different race.</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(enEN!C36&lt;&gt;0,enEN!C36,"")</f>
@@ -19695,7 +19695,7 @@
         <v>Create new character</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>IF(enEN!C37&lt;&gt;0,enEN!C37,"")</f>
@@ -19712,7 +19712,7 @@
         <v>Login with selected character</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D38" s="7" t="str">
         <f>IF(enEN!C38&lt;&gt;0,enEN!C38,"")</f>
@@ -19729,7 +19729,7 @@
         <v>Select character</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D39" s="7" t="str">
         <f>IF(enEN!C39&lt;&gt;0,enEN!C39,"")</f>
@@ -19746,7 +19746,7 @@
         <v>Enter the name for the new character and press enter, or escape to cancel character creation.</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>IF(enEN!C40&lt;&gt;0,enEN!C40,"")</f>
@@ -19763,7 +19763,7 @@
         <v>Failed. You already have the maximum number of character on this server.</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>IF(enEN!C41&lt;&gt;0,enEN!C41,"")</f>
@@ -19780,7 +19780,7 @@
         <v>Changing server. Please wait.</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D42" s="7" t="str">
         <f>IF(enEN!C42&lt;&gt;0,enEN!C42,"")</f>
@@ -19797,7 +19797,7 @@
         <v>Deleting failed. Type Delete again and press enter, or press escape to cancel the deleting process.</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D43" s="7" t="str">
         <f>IF(enEN!C43&lt;&gt;0,enEN!C43,"")</f>
@@ -19814,7 +19814,7 @@
         <v>Character deleted</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D44" s="7" t="str">
         <f>IF(enEN!C44&lt;&gt;0,enEN!C44,"")</f>
@@ -19831,7 +19831,7 @@
         <v>Failed. The name is not available, or the name is not allowed.</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D45" s="7" t="str">
         <f>IF(enEN!C45&lt;&gt;0,enEN!C45,"")</f>
@@ -19848,7 +19848,7 @@
         <v>Character created</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D46" s="7" t="str">
         <f>IF(enEN!C46&lt;&gt;0,enEN!C46,"")</f>
@@ -19865,7 +19865,7 @@
         <v>Empty. No characters on this server.</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D47" s="7" t="str">
         <f>IF(enEN!C47&lt;&gt;0,enEN!C47,"")</f>
@@ -19882,7 +19882,7 @@
         <v>Change server</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D48" s="7" t="str">
         <f>IF(enEN!C48&lt;&gt;0,enEN!C48,"")</f>
@@ -19899,7 +19899,7 @@
         <v>Select region</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D49" s="7" t="str">
         <f>IF(enEN!C49&lt;&gt;0,enEN!C49,"")</f>
@@ -19916,7 +19916,7 @@
         <v>Select game type</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D50" s="7" t="str">
         <f>IF(enEN!C50&lt;&gt;0,enEN!C50,"")</f>
@@ -19933,7 +19933,7 @@
         <v>Select voice</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D51" s="7" t="str">
         <f>IF(enEN!C51&lt;&gt;0,enEN!C51,"")</f>
@@ -19950,7 +19950,7 @@
         <v>Enter Delete and press enter, or press escape to cancel the deleting process.</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>IF(enEN!C52&lt;&gt;0,enEN!C52,"")</f>
@@ -19967,7 +19967,7 @@
         <v>Delete character</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D53" s="7" t="str">
         <f>IF(enEN!C53&lt;&gt;0,enEN!C53,"")</f>
@@ -19984,7 +19984,7 @@
         <v>Server changed</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D54" s="7" t="str">
         <f>IF(enEN!C54&lt;&gt;0,enEN!C54,"")</f>
@@ -20001,7 +20001,7 @@
         <v>The server is full. You are in the queue.</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D55" s="7" t="str">
         <f>IF(enEN!C55&lt;&gt;0,enEN!C55,"")</f>
@@ -20018,7 +20018,7 @@
         <v>Please wait.</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D56" s="7" t="str">
         <f>IF(enEN!C56&lt;&gt;0,enEN!C56,"")</f>
@@ -20035,7 +20035,7 @@
         <v>Creation is canceled. Please wait.</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D57" s="7" t="str">
         <f>IF(enEN!C57&lt;&gt;0,enEN!C57,"")</f>
@@ -20052,7 +20052,7 @@
         <v>Deleting is canceled. Please wait</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D58" s="7" t="str">
         <f>IF(enEN!C58&lt;&gt;0,enEN!C58,"")</f>
@@ -20069,7 +20069,7 @@
         <v>Setup mode</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D59" s="7" t="str">
         <f>IF(enEN!C59&lt;&gt;0,enEN!C59,"")</f>
@@ -20086,7 +20086,7 @@
         <v>The server is full. You are in the queue.</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D60" s="7" t="str">
         <f>IF(enEN!C60&lt;&gt;0,enEN!C60,"")</f>
@@ -20103,7 +20103,7 @@
         <v>Character number:</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D61" s="7" t="str">
         <f>IF(enEN!C61&lt;&gt;0,enEN!C61,"")</f>
@@ -20120,7 +20120,7 @@
         <v>Failed. Client is reporting an incorrect client language for this server. Server not switched.</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D62" s="7" t="str">
         <f>IF(enEN!C62&lt;&gt;0,enEN!C62,"")</f>
@@ -20137,7 +20137,7 @@
         <v>Exile's Reach</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D63" s="7" t="str">
         <f>IF(enEN!C63&lt;&gt;0,enEN!C63,"")</f>
@@ -20154,7 +20154,7 @@
         <v>Race starting zone</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D64" s="7" t="str">
         <f>IF(enEN!C64&lt;&gt;0,enEN!C64,"")</f>
@@ -20171,7 +20171,7 @@
         <v>male</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D65" s="7" t="str">
         <f>IF(enEN!C65&lt;&gt;0,enEN!C65,"")</f>
@@ -20188,7 +20188,7 @@
         <v>female</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D66" s="7" t="str">
         <f>IF(enEN!C66&lt;&gt;0,enEN!C66,"")</f>
@@ -20205,7 +20205,7 @@
         <v>Alliance</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D67" s="7" t="str">
         <f>IF(enEN!C67&lt;&gt;0,enEN!C67,"")</f>
@@ -20222,7 +20222,7 @@
         <v>Horde</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D68" s="7" t="str">
         <f>IF(enEN!C68&lt;&gt;0,enEN!C68,"")</f>
@@ -20239,7 +20239,7 @@
         <v>Human</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D69" s="7" t="str">
         <f>IF(enEN!C69&lt;&gt;0,enEN!C69,"")</f>
@@ -20256,7 +20256,7 @@
         <v>Dwarf</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D70" s="7" t="str">
         <f>IF(enEN!C70&lt;&gt;0,enEN!C70,"")</f>
@@ -20273,7 +20273,7 @@
         <v>Night Elf</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D71" s="7" t="str">
         <f>IF(enEN!C71&lt;&gt;0,enEN!C71,"")</f>
@@ -20290,7 +20290,7 @@
         <v>Gnome</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D72" s="7" t="str">
         <f>IF(enEN!C72&lt;&gt;0,enEN!C72,"")</f>
@@ -20307,7 +20307,7 @@
         <v>Draenei</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D73" s="7" t="str">
         <f>IF(enEN!C73&lt;&gt;0,enEN!C73,"")</f>
@@ -20324,7 +20324,7 @@
         <v>Worgen</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D74" s="7" t="str">
         <f>IF(enEN!C74&lt;&gt;0,enEN!C74,"")</f>
@@ -20341,7 +20341,7 @@
         <v>Pandaren (Alliance)</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D75" s="7" t="str">
         <f>IF(enEN!C75&lt;&gt;0,enEN!C75,"")</f>
@@ -20358,7 +20358,7 @@
         <v>Dracthyr (Alliance)</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D76" s="7" t="str">
         <f>IF(enEN!C76&lt;&gt;0,enEN!C76,"")</f>
@@ -20375,7 +20375,7 @@
         <v>Void Elf</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D77" s="7" t="str">
         <f>IF(enEN!C77&lt;&gt;0,enEN!C77,"")</f>
@@ -20392,7 +20392,7 @@
         <v>Light Forge Draenei</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D78" s="7" t="str">
         <f>IF(enEN!C78&lt;&gt;0,enEN!C78,"")</f>
@@ -20409,7 +20409,7 @@
         <v>Dark Iron Dwarf</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D79" s="7" t="str">
         <f>IF(enEN!C79&lt;&gt;0,enEN!C79,"")</f>
@@ -20426,7 +20426,7 @@
         <v>Kul Tiran</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D80" s="7" t="str">
         <f>IF(enEN!C80&lt;&gt;0,enEN!C80,"")</f>
@@ -20443,7 +20443,7 @@
         <v>Mecha Gnome</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D81" s="7" t="str">
         <f>IF(enEN!C81&lt;&gt;0,enEN!C81,"")</f>
@@ -20460,7 +20460,7 @@
         <v>Orc</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D82" s="7" t="str">
         <f>IF(enEN!C82&lt;&gt;0,enEN!C82,"")</f>
@@ -20477,7 +20477,7 @@
         <v>Undead</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D83" s="7" t="str">
         <f>IF(enEN!C83&lt;&gt;0,enEN!C83,"")</f>
@@ -20494,7 +20494,7 @@
         <v>Tauren</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D84" s="7" t="str">
         <f>IF(enEN!C84&lt;&gt;0,enEN!C84,"")</f>
@@ -20511,7 +20511,7 @@
         <v>Troll</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D85" s="7" t="str">
         <f>IF(enEN!C85&lt;&gt;0,enEN!C85,"")</f>
@@ -20528,7 +20528,7 @@
         <v>Blood Elf</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D86" s="7" t="str">
         <f>IF(enEN!C86&lt;&gt;0,enEN!C86,"")</f>
@@ -20545,7 +20545,7 @@
         <v>Goblin</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D87" s="7" t="str">
         <f>IF(enEN!C87&lt;&gt;0,enEN!C87,"")</f>
@@ -20562,7 +20562,7 @@
         <v>Pandaren (Horde)</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D88" s="7" t="str">
         <f>IF(enEN!C88&lt;&gt;0,enEN!C88,"")</f>
@@ -20579,7 +20579,7 @@
         <v>Dracthyr (Horde)</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="D89" s="7" t="str">
         <f>IF(enEN!C89&lt;&gt;0,enEN!C89,"")</f>
@@ -20596,7 +20596,7 @@
         <v>Night Borne</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D90" s="7" t="str">
         <f>IF(enEN!C90&lt;&gt;0,enEN!C90,"")</f>
@@ -20613,7 +20613,7 @@
         <v>High Mountain Tauren</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D91" s="7" t="str">
         <f>IF(enEN!C91&lt;&gt;0,enEN!C91,"")</f>
@@ -20630,7 +20630,7 @@
         <v>Mag Har Ork</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D92" s="7" t="str">
         <f>IF(enEN!C92&lt;&gt;0,enEN!C92,"")</f>
@@ -20647,7 +20647,7 @@
         <v>Zandalari Troll</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D93" s="7" t="str">
         <f>IF(enEN!C93&lt;&gt;0,enEN!C93,"")</f>
@@ -20664,7 +20664,7 @@
         <v>Vulpera</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D94" s="7" t="str">
         <f>IF(enEN!C94&lt;&gt;0,enEN!C94,"")</f>
@@ -20681,7 +20681,7 @@
         <v>Warrior</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D95" s="7" t="str">
         <f>IF(enEN!C95&lt;&gt;0,enEN!C95,"")</f>
@@ -20698,7 +20698,7 @@
         <v>Hunter</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D96" s="7" t="str">
         <f>IF(enEN!C96&lt;&gt;0,enEN!C96,"")</f>
@@ -20715,7 +20715,7 @@
         <v>Mage</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D97" s="7" t="str">
         <f>IF(enEN!C97&lt;&gt;0,enEN!C97,"")</f>
@@ -20732,7 +20732,7 @@
         <v>Rogue</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D98" s="7" t="str">
         <f>IF(enEN!C98&lt;&gt;0,enEN!C98,"")</f>
@@ -20749,7 +20749,7 @@
         <v>Priest</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D99" s="7" t="str">
         <f>IF(enEN!C99&lt;&gt;0,enEN!C99,"")</f>
@@ -20766,7 +20766,7 @@
         <v>Warlock</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D100" s="7" t="str">
         <f>IF(enEN!C100&lt;&gt;0,enEN!C100,"")</f>
@@ -20783,7 +20783,7 @@
         <v>Paladin</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D101" s="7" t="str">
         <f>IF(enEN!C101&lt;&gt;0,enEN!C101,"")</f>
@@ -20800,7 +20800,7 @@
         <v>Druid</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D102" s="7" t="str">
         <f>IF(enEN!C102&lt;&gt;0,enEN!C102,"")</f>
@@ -20817,7 +20817,7 @@
         <v>Shaman</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D103" s="7" t="str">
         <f>IF(enEN!C103&lt;&gt;0,enEN!C103,"")</f>
@@ -20834,7 +20834,7 @@
         <v>Monk</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D104" s="7" t="str">
         <f>IF(enEN!C104&lt;&gt;0,enEN!C104,"")</f>
@@ -20851,7 +20851,7 @@
         <v>Demon Hunter</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D105" s="7" t="str">
         <f>IF(enEN!C105&lt;&gt;0,enEN!C105,"")</f>
@@ -20868,7 +20868,7 @@
         <v>Death Knight</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D106" s="7" t="str">
         <f>IF(enEN!C106&lt;&gt;0,enEN!C106,"")</f>
@@ -20885,7 +20885,7 @@
         <v>Evoker</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D107" s="7" t="str">
         <f>IF(enEN!C107&lt;&gt;0,enEN!C107,"")</f>
@@ -27014,7 +27014,7 @@
         <v>English</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D2" s="7" t="str">
         <f>IF(enEN!C2&lt;&gt;0,enEN!C2,"")</f>
@@ -27031,7 +27031,7 @@
         <v>German</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D3" s="7" t="str">
         <f>IF(enEN!C3&lt;&gt;0,enEN!C3,"")</f>
@@ -27048,7 +27048,7 @@
         <v>French</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" s="7" t="str">
         <f>IF(enEN!C4&lt;&gt;0,enEN!C4,"")</f>
@@ -27065,7 +27065,7 @@
         <v>Russian</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" s="7" t="str">
         <f>IF(enEN!C5&lt;&gt;0,enEN!C5,"")</f>
@@ -27082,7 +27082,7 @@
         <v>Spanish</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="7" t="str">
         <f>IF(enEN!C6&lt;&gt;0,enEN!C6,"")</f>
@@ -27099,7 +27099,7 @@
         <v>Italian</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D7" s="7" t="str">
         <f>IF(enEN!C7&lt;&gt;0,enEN!C7,"")</f>
@@ -27116,7 +27116,7 @@
         <v>Portuguese</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7" t="str">
         <f>IF(enEN!C8&lt;&gt;0,enEN!C8,"")</f>
@@ -27133,7 +27133,7 @@
         <v>Korean</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>IF(enEN!C9&lt;&gt;0,enEN!C9,"")</f>
@@ -27150,7 +27150,7 @@
         <v>Chinese</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>IF(enEN!C10&lt;&gt;0,enEN!C10,"")</f>
@@ -27167,7 +27167,7 @@
         <v>Setup completed. Start the game now.</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D11" s="7" t="str">
         <f>IF(enEN!C11&lt;&gt;0,enEN!C11,"")</f>
@@ -27184,7 +27184,7 @@
         <v>selected</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D12" s="7" t="str">
         <f>IF(enEN!C12&lt;&gt;0,enEN!C12,"")</f>
@@ -27201,7 +27201,7 @@
         <v>Go right to select a voice</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>IF(enEN!C13&lt;&gt;0,enEN!C13,"")</f>
@@ -27218,7 +27218,7 @@
         <v>Go right to select a game type</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D14" s="7" t="str">
         <f>IF(enEN!C14&lt;&gt;0,enEN!C14,"")</f>
@@ -27235,7 +27235,7 @@
         <v>Go right to select a language</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D15" s="7" t="str">
         <f>IF(enEN!C15&lt;&gt;0,enEN!C15,"")</f>
@@ -27252,7 +27252,7 @@
         <v>Pause mode</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D16" s="7" t="str">
         <f>IF(enEN!C16&lt;&gt;0,enEN!C16,"")</f>
@@ -27269,7 +27269,7 @@
         <v>Play mode</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>IF(enEN!C17&lt;&gt;0,enEN!C17,"")</f>
@@ -27286,7 +27286,7 @@
         <v>Login mode</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D18" s="7" t="str">
         <f>IF(enEN!C18&lt;&gt;0,enEN!C18,"")</f>
@@ -27303,7 +27303,7 @@
         <v>Login mode for</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D19" s="7" t="str">
         <f>IF(enEN!C19&lt;&gt;0,enEN!C19,"")</f>
@@ -27320,7 +27320,7 @@
         <v>Terminated</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D20" s="7" t="str">
         <f>IF(enEN!C20&lt;&gt;0,enEN!C20,"")</f>
@@ -27337,7 +27337,7 @@
         <v>Select language</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D21" s="7" t="str">
         <f>IF(enEN!C21&lt;&gt;0,enEN!C21,"")</f>
@@ -27354,7 +27354,7 @@
         <v>Main menu</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D22" s="7" t="str">
         <f>IF(enEN!C22&lt;&gt;0,enEN!C22,"")</f>
@@ -27371,7 +27371,7 @@
         <v>selected. Restarting script to apply. Please wait.</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D23" s="7" t="str">
         <f>IF(enEN!C23&lt;&gt;0,enEN!C23,"")</f>
@@ -27388,7 +27388,7 @@
         <v>Wait</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D24" s="7" t="str">
         <f>IF(enEN!C24&lt;&gt;0,enEN!C24,"")</f>
@@ -27405,7 +27405,7 @@
         <v>Go right to select a region</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D25" s="7" t="str">
         <f>IF(enEN!C25&lt;&gt;0,enEN!C25,"")</f>
@@ -27439,7 +27439,7 @@
         <v>USA</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D27" s="7" t="str">
         <f>IF(enEN!C27&lt;&gt;0,enEN!C27,"")</f>
@@ -27456,7 +27456,7 @@
         <v>Wrath of the Lich King</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D28" s="7" t="str">
         <f>IF(enEN!C28&lt;&gt;0,enEN!C28,"")</f>
@@ -27473,7 +27473,7 @@
         <v>Classic Era</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D29" s="7" t="str">
         <f>IF(enEN!C29&lt;&gt;0,enEN!C29,"")</f>
@@ -27507,7 +27507,7 @@
         <v>Not_available</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D31" s="7" t="str">
         <f>IF(enEN!C31&lt;&gt;0,enEN!C31,"")</f>
@@ -27524,7 +27524,7 @@
         <v>Something went wrong. Please restart the game and try again.</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D32" s="7" t="str">
         <f>IF(enEN!C32&lt;&gt;0,enEN!C32,"")</f>
@@ -27541,7 +27541,7 @@
         <v>You don't have any characters on the selected server</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D33" s="7" t="str">
         <f>IF(enEN!C33&lt;&gt;0,enEN!C33,"")</f>
@@ -27558,7 +27558,7 @@
         <v>character</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D34" s="7" t="str">
         <f>IF(enEN!C34&lt;&gt;0,enEN!C34,"")</f>
@@ -27575,7 +27575,7 @@
         <v>selected</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D35" s="7" t="str">
         <f>IF(enEN!C35&lt;&gt;0,enEN!C35,"")</f>
@@ -27592,7 +27592,7 @@
         <v>This race is locked for your account. Try a different race.</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(enEN!C36&lt;&gt;0,enEN!C36,"")</f>
@@ -27609,7 +27609,7 @@
         <v>Create new character</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D37" s="7" t="str">
         <f>IF(enEN!C37&lt;&gt;0,enEN!C37,"")</f>
@@ -27626,7 +27626,7 @@
         <v>Login with selected character</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D38" s="7" t="str">
         <f>IF(enEN!C38&lt;&gt;0,enEN!C38,"")</f>
@@ -27643,7 +27643,7 @@
         <v>Select character</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D39" s="7" t="str">
         <f>IF(enEN!C39&lt;&gt;0,enEN!C39,"")</f>
@@ -27660,7 +27660,7 @@
         <v>Enter the name for the new character and press enter, or escape to cancel character creation.</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D40" s="7" t="str">
         <f>IF(enEN!C40&lt;&gt;0,enEN!C40,"")</f>
@@ -27677,7 +27677,7 @@
         <v>Failed. You already have the maximum number of character on this server.</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D41" s="7" t="str">
         <f>IF(enEN!C41&lt;&gt;0,enEN!C41,"")</f>
@@ -27694,7 +27694,7 @@
         <v>Changing server. Please wait.</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D42" s="7" t="str">
         <f>IF(enEN!C42&lt;&gt;0,enEN!C42,"")</f>
@@ -27711,7 +27711,7 @@
         <v>Deleting failed. Type Delete again and press enter, or press escape to cancel the deleting process.</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D43" s="7" t="str">
         <f>IF(enEN!C43&lt;&gt;0,enEN!C43,"")</f>
@@ -27728,7 +27728,7 @@
         <v>Character deleted</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D44" s="7" t="str">
         <f>IF(enEN!C44&lt;&gt;0,enEN!C44,"")</f>
@@ -27745,7 +27745,7 @@
         <v>Failed. The name is not available, or the name is not allowed.</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D45" s="7" t="str">
         <f>IF(enEN!C45&lt;&gt;0,enEN!C45,"")</f>
@@ -27762,7 +27762,7 @@
         <v>Character created</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D46" s="7" t="str">
         <f>IF(enEN!C46&lt;&gt;0,enEN!C46,"")</f>
@@ -27779,7 +27779,7 @@
         <v>Empty. No characters on this server.</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D47" s="7" t="str">
         <f>IF(enEN!C47&lt;&gt;0,enEN!C47,"")</f>
@@ -27796,7 +27796,7 @@
         <v>Change server</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D48" s="7" t="str">
         <f>IF(enEN!C48&lt;&gt;0,enEN!C48,"")</f>
@@ -27813,7 +27813,7 @@
         <v>Select region</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D49" s="7" t="str">
         <f>IF(enEN!C49&lt;&gt;0,enEN!C49,"")</f>
@@ -27830,7 +27830,7 @@
         <v>Select game type</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D50" s="7" t="str">
         <f>IF(enEN!C50&lt;&gt;0,enEN!C50,"")</f>
@@ -27847,7 +27847,7 @@
         <v>Select voice</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D51" s="7" t="str">
         <f>IF(enEN!C51&lt;&gt;0,enEN!C51,"")</f>
@@ -27864,7 +27864,7 @@
         <v>Enter Delete and press enter, or press escape to cancel the deleting process.</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D52" s="7" t="str">
         <f>IF(enEN!C52&lt;&gt;0,enEN!C52,"")</f>
@@ -27881,7 +27881,7 @@
         <v>Delete character</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D53" s="7" t="str">
         <f>IF(enEN!C53&lt;&gt;0,enEN!C53,"")</f>
@@ -27898,7 +27898,7 @@
         <v>Server changed</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D54" s="7" t="str">
         <f>IF(enEN!C54&lt;&gt;0,enEN!C54,"")</f>
@@ -27915,7 +27915,7 @@
         <v>The server is full. You are in the queue.</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D55" s="7" t="str">
         <f>IF(enEN!C55&lt;&gt;0,enEN!C55,"")</f>
@@ -27932,7 +27932,7 @@
         <v>Please wait.</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D56" s="7" t="str">
         <f>IF(enEN!C56&lt;&gt;0,enEN!C56,"")</f>
@@ -27949,7 +27949,7 @@
         <v>Creation is canceled. Please wait.</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D57" s="7" t="str">
         <f>IF(enEN!C57&lt;&gt;0,enEN!C57,"")</f>
@@ -27966,7 +27966,7 @@
         <v>Deleting is canceled. Please wait</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D58" s="7" t="str">
         <f>IF(enEN!C58&lt;&gt;0,enEN!C58,"")</f>
@@ -27983,7 +27983,7 @@
         <v>Setup mode</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D59" s="7" t="str">
         <f>IF(enEN!C59&lt;&gt;0,enEN!C59,"")</f>
@@ -28000,7 +28000,7 @@
         <v>The server is full. You are in the queue.</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D60" s="7" t="str">
         <f>IF(enEN!C60&lt;&gt;0,enEN!C60,"")</f>
@@ -28017,7 +28017,7 @@
         <v>Character number:</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D61" s="7" t="str">
         <f>IF(enEN!C61&lt;&gt;0,enEN!C61,"")</f>
@@ -28034,7 +28034,7 @@
         <v>Failed. Client is reporting an incorrect client language for this server. Server not switched.</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D62" s="7" t="str">
         <f>IF(enEN!C62&lt;&gt;0,enEN!C62,"")</f>
@@ -28051,7 +28051,7 @@
         <v>Exile's Reach</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D63" s="7" t="str">
         <f>IF(enEN!C63&lt;&gt;0,enEN!C63,"")</f>
@@ -28068,7 +28068,7 @@
         <v>Race starting zone</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D64" s="7" t="str">
         <f>IF(enEN!C64&lt;&gt;0,enEN!C64,"")</f>
@@ -28085,7 +28085,7 @@
         <v>male</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D65" s="7" t="str">
         <f>IF(enEN!C65&lt;&gt;0,enEN!C65,"")</f>
@@ -28102,7 +28102,7 @@
         <v>female</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D66" s="7" t="str">
         <f>IF(enEN!C66&lt;&gt;0,enEN!C66,"")</f>
@@ -28119,7 +28119,7 @@
         <v>Alliance</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D67" s="7" t="str">
         <f>IF(enEN!C67&lt;&gt;0,enEN!C67,"")</f>
@@ -28136,7 +28136,7 @@
         <v>Horde</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D68" s="7" t="str">
         <f>IF(enEN!C68&lt;&gt;0,enEN!C68,"")</f>
@@ -28153,7 +28153,7 @@
         <v>Human</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D69" s="7" t="str">
         <f>IF(enEN!C69&lt;&gt;0,enEN!C69,"")</f>
@@ -28170,7 +28170,7 @@
         <v>Dwarf</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D70" s="7" t="str">
         <f>IF(enEN!C70&lt;&gt;0,enEN!C70,"")</f>
@@ -28187,7 +28187,7 @@
         <v>Night Elf</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D71" s="7" t="str">
         <f>IF(enEN!C71&lt;&gt;0,enEN!C71,"")</f>
@@ -28204,7 +28204,7 @@
         <v>Gnome</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D72" s="7" t="str">
         <f>IF(enEN!C72&lt;&gt;0,enEN!C72,"")</f>
@@ -28238,7 +28238,7 @@
         <v>Worgen</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D74" s="7" t="str">
         <f>IF(enEN!C74&lt;&gt;0,enEN!C74,"")</f>
@@ -28255,7 +28255,7 @@
         <v>Pandaren (Alliance)</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D75" s="7" t="str">
         <f>IF(enEN!C75&lt;&gt;0,enEN!C75,"")</f>
@@ -28272,7 +28272,7 @@
         <v>Dracthyr (Alliance)</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D76" s="7" t="str">
         <f>IF(enEN!C76&lt;&gt;0,enEN!C76,"")</f>
@@ -28289,7 +28289,7 @@
         <v>Void Elf</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D77" s="7" t="str">
         <f>IF(enEN!C77&lt;&gt;0,enEN!C77,"")</f>
@@ -28306,7 +28306,7 @@
         <v>Light Forge Draenei</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D78" s="7" t="str">
         <f>IF(enEN!C78&lt;&gt;0,enEN!C78,"")</f>
@@ -28323,7 +28323,7 @@
         <v>Dark Iron Dwarf</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D79" s="7" t="str">
         <f>IF(enEN!C79&lt;&gt;0,enEN!C79,"")</f>
@@ -28340,7 +28340,7 @@
         <v>Kul Tiran</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D80" s="7" t="str">
         <f>IF(enEN!C80&lt;&gt;0,enEN!C80,"")</f>
@@ -28357,7 +28357,7 @@
         <v>Mecha Gnome</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D81" s="7" t="str">
         <f>IF(enEN!C81&lt;&gt;0,enEN!C81,"")</f>
@@ -28374,7 +28374,7 @@
         <v>Orc</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D82" s="7" t="str">
         <f>IF(enEN!C82&lt;&gt;0,enEN!C82,"")</f>
@@ -28391,7 +28391,7 @@
         <v>Undead</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D83" s="7" t="str">
         <f>IF(enEN!C83&lt;&gt;0,enEN!C83,"")</f>
@@ -28425,7 +28425,7 @@
         <v>Troll</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D85" s="7" t="str">
         <f>IF(enEN!C85&lt;&gt;0,enEN!C85,"")</f>
@@ -28442,7 +28442,7 @@
         <v>Blood Elf</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D86" s="7" t="str">
         <f>IF(enEN!C86&lt;&gt;0,enEN!C86,"")</f>
@@ -28476,7 +28476,7 @@
         <v>Pandaren (Horde)</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D88" s="7" t="str">
         <f>IF(enEN!C88&lt;&gt;0,enEN!C88,"")</f>
@@ -28493,7 +28493,7 @@
         <v>Dracthyr (Horde)</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D89" s="7" t="str">
         <f>IF(enEN!C89&lt;&gt;0,enEN!C89,"")</f>
@@ -28510,7 +28510,7 @@
         <v>Night Borne</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D90" s="7" t="str">
         <f>IF(enEN!C90&lt;&gt;0,enEN!C90,"")</f>
@@ -28527,7 +28527,7 @@
         <v>High Mountain Tauren</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D91" s="7" t="str">
         <f>IF(enEN!C91&lt;&gt;0,enEN!C91,"")</f>
@@ -28544,7 +28544,7 @@
         <v>Mag Har Ork</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D92" s="7" t="str">
         <f>IF(enEN!C92&lt;&gt;0,enEN!C92,"")</f>
@@ -28561,7 +28561,7 @@
         <v>Zandalari Troll</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D93" s="7" t="str">
         <f>IF(enEN!C93&lt;&gt;0,enEN!C93,"")</f>
@@ -28595,7 +28595,7 @@
         <v>Warrior</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D95" s="7" t="str">
         <f>IF(enEN!C95&lt;&gt;0,enEN!C95,"")</f>
@@ -28612,7 +28612,7 @@
         <v>Hunter</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D96" s="7" t="str">
         <f>IF(enEN!C96&lt;&gt;0,enEN!C96,"")</f>
@@ -28629,7 +28629,7 @@
         <v>Mage</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D97" s="7" t="str">
         <f>IF(enEN!C97&lt;&gt;0,enEN!C97,"")</f>
@@ -28646,7 +28646,7 @@
         <v>Rogue</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D98" s="7" t="str">
         <f>IF(enEN!C98&lt;&gt;0,enEN!C98,"")</f>
@@ -28663,7 +28663,7 @@
         <v>Priest</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D99" s="7" t="str">
         <f>IF(enEN!C99&lt;&gt;0,enEN!C99,"")</f>
@@ -28680,7 +28680,7 @@
         <v>Warlock</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D100" s="7" t="str">
         <f>IF(enEN!C100&lt;&gt;0,enEN!C100,"")</f>
@@ -28697,7 +28697,7 @@
         <v>Paladin</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D101" s="7" t="str">
         <f>IF(enEN!C101&lt;&gt;0,enEN!C101,"")</f>
@@ -28714,7 +28714,7 @@
         <v>Druid</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D102" s="7" t="str">
         <f>IF(enEN!C102&lt;&gt;0,enEN!C102,"")</f>
@@ -28731,7 +28731,7 @@
         <v>Shaman</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D103" s="7" t="str">
         <f>IF(enEN!C103&lt;&gt;0,enEN!C103,"")</f>
@@ -28748,7 +28748,7 @@
         <v>Monk</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D104" s="7" t="str">
         <f>IF(enEN!C104&lt;&gt;0,enEN!C104,"")</f>
@@ -28765,7 +28765,7 @@
         <v>Demon Hunter</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D105" s="7" t="str">
         <f>IF(enEN!C105&lt;&gt;0,enEN!C105,"")</f>
@@ -28782,7 +28782,7 @@
         <v>Death Knight</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D106" s="7" t="str">
         <f>IF(enEN!C106&lt;&gt;0,enEN!C106,"")</f>
@@ -28799,7 +28799,7 @@
         <v>Evoker</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D107" s="7" t="str">
         <f>IF(enEN!C107&lt;&gt;0,enEN!C107,"")</f>
